--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -700,19 +700,31 @@
     <t>Zombo</t>
   </si>
   <si>
-    <t>2014</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
   <si>
     <t>Name: uganda-leaving-exam-perf-rate</t>
   </si>
   <si>
-    <t>Description: Ugandan Primary Leaving Exam Performance Index </t>
+    <t>Description: Primary Leaving Exam Performance Index</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Education abstracts 2010-2013, budget data - Ministry of Education</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.education.go.ug/data/smenu/4/Statistics%20Abstract%20.html</t>
   </si>
   <si>
     <t/>
@@ -727,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1067,77 +1082,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1176,63 +1201,61 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D6" t="n">
         <v>49</v>
@@ -1240,223 +1263,215 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D12" t="n">
-        <v>53</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D16" t="n">
-        <v>55</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D20" t="n">
-        <v>38</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D22" t="n">
         <v>59</v>
@@ -1464,1275 +1479,5765 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D24" t="n">
-        <v>61</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D28" t="n">
-        <v>40</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D32" t="n">
-        <v>54</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D36" t="n">
-        <v>57</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D38" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D39" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D40" t="n">
-        <v>56</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D42" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D44" t="n">
-        <v>75</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D46" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D48" t="n">
-        <v>45</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D50" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D52" t="n">
-        <v>52</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D54" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D56" t="n">
-        <v>62</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D58" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D59" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D60" t="n">
-        <v>54</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D62" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D63" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D64" t="n">
-        <v>46</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D66" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D67" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D68" t="n">
-        <v>61</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D71" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D72" t="n">
-        <v>66</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D75" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D76" t="n">
-        <v>68</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D78" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D79" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D80" t="n">
-        <v>69</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D84" t="n">
-        <v>58</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C86" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D86" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D87" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D88" t="n">
-        <v>53</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D90" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D91" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D92" t="n">
-        <v>61</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D94" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D95" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D96" t="n">
-        <v>67</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D98" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D99" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D100" t="n">
-        <v>51</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D102" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D103" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D104" t="n">
-        <v>68</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D106" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D107" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D108" t="n">
-        <v>51</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C110" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C111" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C112" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D112" t="n">
-        <v>51</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D113" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D114" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D115" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D118" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D119" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D121" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D122" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D123" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D125" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D126" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D127" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D129" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D130" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D131" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D133" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D134" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D135" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D138" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D139" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D141" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D142" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D143" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D145" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D146" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D147" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D149" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D150" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D151" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D153" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D154" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D155" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D158" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D159" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D161" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D162" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D163" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D165" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D166" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D167" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D169" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D170" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D171" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D173" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D174" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D175" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D177" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D178" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D179" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D181" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D182" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D183" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D185" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D186" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D187" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D189" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D190" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D191" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D193" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D194" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D195" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D198" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D199" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D201" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D202" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D203" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D205" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D206" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D207" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D209" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D210" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D211" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D213" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D214" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D215" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D217" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D218" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D219" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D221" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D222" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D223" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D225" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D226" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D227" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D229" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D230" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D231" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D232"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D233" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D234" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D235" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D237" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D238" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D239" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D241" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D242" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D243" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D244"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D245" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D246" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D247" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D248"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D249" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D250" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D251" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D252"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D253" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D254" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D255" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D256"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D257" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D258" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D259" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D260"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D261" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D262" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D263" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D264"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D265" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D266" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D267" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D268"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D269" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D270" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D272"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D273" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D274" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D275" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D276"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D277" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D278" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D279" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D280"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D281" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D282" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D283" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D284"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D285" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D286" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D287" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D288"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D289" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D290" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D291" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D292"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D293" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D294" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D295" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D296"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D297" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D298" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D299" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D300"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D301" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D302" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D303" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D304"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D305" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D306" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D307" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D308"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D309" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D310" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D311" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D312"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D313" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D314" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D315" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D316"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D317" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D318" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D319" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D320"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D321" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D322" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D323" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D324"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D325" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D326" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D327" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D328"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D329" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D330" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D331" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D332"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D333" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D334" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D335" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D336"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D337" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D338" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D339" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D340"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D341" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D342" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D343" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D344"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D345" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D346" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D347" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D348"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D349" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D350" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D351" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D352"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D353" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D354" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D355" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D356"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D357" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D358" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D359" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D360"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D361" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D362" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D363" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D364"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D365" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D366" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D367" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D368"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D369" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D370" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D371" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D372"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D373" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D374" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D375" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D376"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D377" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D378" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D379" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D380"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D381" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D382" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D383" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D384"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D385" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D386" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D387" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D388"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D389" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D390" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D391" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D392"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D393" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D394" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D395" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D396"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D397" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D398" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D399" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D400"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D401" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D402" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D403" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D404"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D405" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D406" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D407" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D408"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D409" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D410" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D411" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D412"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D413" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D414" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D415" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D416"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D417" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D418" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D419" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D420"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D421" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D422" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D423" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D424"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D425" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D426" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D427" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D428"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D429" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D430" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D431" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D432"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D433" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D434" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D435" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D436"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D437" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D438" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D439" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D440"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D441" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D442" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D443" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D444"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D445" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B446" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C446" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D446" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D447" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D448"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D449" t="n">
         <v>53</v>
       </c>
     </row>
@@ -2760,6 +7265,15 @@
       <c r="C1" t="s">
         <v>228</v>
       </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2769,6 +7283,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2780,6 +7301,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2791,6 +7319,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2802,6 +7337,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2813,6 +7355,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2824,6 +7373,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2835,6 +7391,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2846,6 +7409,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2857,6 +7427,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2868,6 +7445,13 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2881,6 +7465,13 @@
       <c r="C12" t="n">
         <v>53</v>
       </c>
+      <c r="D12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2890,6 +7481,13 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v>44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2901,6 +7499,13 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v>49</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2912,6 +7517,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
+        <v>69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>65</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="n">
         <v>61</v>
       </c>
     </row>
@@ -2925,6 +7537,13 @@
       <c r="C16" t="n">
         <v>55</v>
       </c>
+      <c r="D16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2934,6 +7553,13 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
+        <v>49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2945,6 +7571,13 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v>56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>56</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="n">
         <v>52</v>
       </c>
     </row>
@@ -2956,6 +7589,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
+        <v>41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2967,6 +7607,13 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2978,6 +7625,13 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
+        <v>56</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="n">
         <v>53</v>
       </c>
     </row>
@@ -2989,6 +7643,13 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
+        <v>49</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3000,6 +7661,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
+        <v>69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3011,6 +7679,13 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>66</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3022,6 +7697,13 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
+        <v>48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>53</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3033,6 +7715,13 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
+        <v>49</v>
+      </c>
+      <c r="D26" t="n">
+        <v>53</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3044,6 +7733,13 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
+        <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3055,6 +7751,13 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
+        <v>41</v>
+      </c>
+      <c r="D28" t="n">
+        <v>51</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3066,6 +7769,13 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="n">
+        <v>57</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3077,6 +7787,13 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>56</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3088,6 +7805,13 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
+        <v>56</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3101,6 +7825,13 @@
       <c r="C32" t="n">
         <v>54</v>
       </c>
+      <c r="D32" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3110,6 +7841,13 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
+        <v>63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>67</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3121,6 +7859,13 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
+        <v>43</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3134,6 +7879,13 @@
       <c r="C35" t="n">
         <v>59</v>
       </c>
+      <c r="D35" t="n">
+        <v>65</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3145,6 +7897,13 @@
       <c r="C36" t="n">
         <v>57</v>
       </c>
+      <c r="D36" t="n">
+        <v>65</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3154,6 +7913,13 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
+        <v>55</v>
+      </c>
+      <c r="D37" t="n">
+        <v>57</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3165,6 +7931,13 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" t="n">
+        <v>61</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3176,6 +7949,13 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
+        <v>69</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="n">
         <v>78</v>
       </c>
     </row>
@@ -3187,6 +7967,13 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
+        <v>74</v>
+      </c>
+      <c r="D40" t="n">
+        <v>59</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3198,6 +7985,13 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
+        <v>56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>65</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3209,6 +8003,13 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
+        <v>43</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3220,6 +8021,13 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
+        <v>56</v>
+      </c>
+      <c r="D43" t="n">
+        <v>61</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3233,6 +8041,13 @@
       <c r="C44" t="n">
         <v>75</v>
       </c>
+      <c r="D44" t="n">
+        <v>78</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3242,6 +8057,13 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
+        <v>47</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3253,6 +8075,13 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
+        <v>58</v>
+      </c>
+      <c r="D46" t="n">
+        <v>64</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3264,6 +8093,13 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
+        <v>68</v>
+      </c>
+      <c r="D47" t="n">
+        <v>69</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3275,6 +8111,13 @@
         <v>97</v>
       </c>
       <c r="C48" t="n">
+        <v>42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3286,6 +8129,13 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
+        <v>57</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3297,6 +8147,13 @@
         <v>101</v>
       </c>
       <c r="C50" t="n">
+        <v>61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>62</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3308,6 +8165,13 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
+        <v>51</v>
+      </c>
+      <c r="D51" t="n">
+        <v>54</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3319,6 +8183,13 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
+        <v>54</v>
+      </c>
+      <c r="D52" t="n">
+        <v>58</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3330,6 +8201,13 @@
         <v>107</v>
       </c>
       <c r="C53" t="n">
+        <v>45</v>
+      </c>
+      <c r="D53" t="n">
+        <v>56</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3341,6 +8219,13 @@
         <v>109</v>
       </c>
       <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="n">
+        <v>57</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3352,6 +8237,13 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
+        <v>69</v>
+      </c>
+      <c r="D55" t="n">
+        <v>71</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="n">
         <v>68</v>
       </c>
     </row>
@@ -3363,6 +8255,13 @@
         <v>113</v>
       </c>
       <c r="C56" t="n">
+        <v>58</v>
+      </c>
+      <c r="D56" t="n">
+        <v>65</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3374,6 +8273,13 @@
         <v>115</v>
       </c>
       <c r="C57" t="n">
+        <v>58</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3385,6 +8291,13 @@
         <v>117</v>
       </c>
       <c r="C58" t="n">
+        <v>52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>62</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3396,6 +8309,13 @@
         <v>119</v>
       </c>
       <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3407,6 +8327,13 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3418,6 +8345,13 @@
         <v>123</v>
       </c>
       <c r="C61" t="n">
+        <v>63</v>
+      </c>
+      <c r="D61" t="n">
+        <v>62</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3429,6 +8363,13 @@
         <v>125</v>
       </c>
       <c r="C62" t="n">
+        <v>59</v>
+      </c>
+      <c r="D62" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3440,6 +8381,13 @@
         <v>127</v>
       </c>
       <c r="C63" t="n">
+        <v>42</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3451,6 +8399,13 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
+        <v>45</v>
+      </c>
+      <c r="D64" t="n">
+        <v>55</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3462,6 +8417,13 @@
         <v>131</v>
       </c>
       <c r="C65" t="n">
+        <v>56</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3473,6 +8435,13 @@
         <v>133</v>
       </c>
       <c r="C66" t="n">
+        <v>56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>58</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3484,6 +8453,13 @@
         <v>135</v>
       </c>
       <c r="C67" t="n">
+        <v>49</v>
+      </c>
+      <c r="D67" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3495,6 +8471,13 @@
         <v>137</v>
       </c>
       <c r="C68" t="n">
+        <v>55</v>
+      </c>
+      <c r="D68" t="n">
+        <v>69</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3506,6 +8489,13 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
+        <v>43</v>
+      </c>
+      <c r="D69" t="n">
+        <v>50</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3517,6 +8507,13 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
+        <v>58</v>
+      </c>
+      <c r="D70" t="n">
+        <v>63</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3528,6 +8525,13 @@
         <v>143</v>
       </c>
       <c r="C71" t="n">
+        <v>56</v>
+      </c>
+      <c r="D71" t="n">
+        <v>59</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3539,6 +8543,13 @@
         <v>145</v>
       </c>
       <c r="C72" t="n">
+        <v>63</v>
+      </c>
+      <c r="D72" t="n">
+        <v>67</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="n">
         <v>66</v>
       </c>
     </row>
@@ -3550,6 +8561,13 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
+        <v>42</v>
+      </c>
+      <c r="D73" t="n">
+        <v>52</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3563,6 +8581,13 @@
       <c r="C74" t="n">
         <v>57</v>
       </c>
+      <c r="D74" t="n">
+        <v>60</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -3572,6 +8597,13 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
+        <v>56</v>
+      </c>
+      <c r="D75" t="n">
+        <v>69</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="n">
         <v>64</v>
       </c>
     </row>
@@ -3583,6 +8615,13 @@
         <v>153</v>
       </c>
       <c r="C76" t="n">
+        <v>58</v>
+      </c>
+      <c r="D76" t="n">
+        <v>70</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="n">
         <v>68</v>
       </c>
     </row>
@@ -3594,6 +8633,13 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
+        <v>48</v>
+      </c>
+      <c r="D77" t="n">
+        <v>55</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3605,6 +8651,13 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
+        <v>56</v>
+      </c>
+      <c r="D78" t="n">
+        <v>65</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3616,6 +8669,13 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
+        <v>74</v>
+      </c>
+      <c r="D79" t="n">
+        <v>75</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3629,6 +8689,13 @@
       <c r="C80" t="n">
         <v>69</v>
       </c>
+      <c r="D80" t="n">
+        <v>70</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -3640,6 +8707,13 @@
       <c r="C81" t="n">
         <v>52</v>
       </c>
+      <c r="D81" t="n">
+        <v>62</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -3649,6 +8723,13 @@
         <v>165</v>
       </c>
       <c r="C82" t="n">
+        <v>65</v>
+      </c>
+      <c r="D82" t="n">
+        <v>64</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3662,6 +8743,13 @@
       <c r="C83" t="n">
         <v>64</v>
       </c>
+      <c r="D83" t="n">
+        <v>67</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -3671,6 +8759,13 @@
         <v>169</v>
       </c>
       <c r="C84" t="n">
+        <v>49</v>
+      </c>
+      <c r="D84" t="n">
+        <v>62</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3682,6 +8777,13 @@
         <v>171</v>
       </c>
       <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>59</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3693,6 +8795,13 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
+        <v>61</v>
+      </c>
+      <c r="D86" t="n">
+        <v>69</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="n">
         <v>62</v>
       </c>
     </row>
@@ -3704,6 +8813,13 @@
         <v>175</v>
       </c>
       <c r="C87" t="n">
+        <v>59</v>
+      </c>
+      <c r="D87" t="n">
+        <v>61</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3715,6 +8831,13 @@
         <v>177</v>
       </c>
       <c r="C88" t="n">
+        <v>51</v>
+      </c>
+      <c r="D88" t="n">
+        <v>60</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3726,6 +8849,13 @@
         <v>179</v>
       </c>
       <c r="C89" t="n">
+        <v>57</v>
+      </c>
+      <c r="D89" t="n">
+        <v>63</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3739,6 +8869,13 @@
       <c r="C90" t="n">
         <v>49</v>
       </c>
+      <c r="D90" t="n">
+        <v>57</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -3748,6 +8885,13 @@
         <v>183</v>
       </c>
       <c r="C91" t="n">
+        <v>43</v>
+      </c>
+      <c r="D91" t="n">
+        <v>54</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3759,6 +8903,13 @@
         <v>185</v>
       </c>
       <c r="C92" t="n">
+        <v>65</v>
+      </c>
+      <c r="D92" t="n">
+        <v>64</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3770,6 +8921,13 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
+        <v>52</v>
+      </c>
+      <c r="D93" t="n">
+        <v>57</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3781,6 +8939,13 @@
         <v>189</v>
       </c>
       <c r="C94" t="n">
+        <v>59</v>
+      </c>
+      <c r="D94" t="n">
+        <v>60</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3792,6 +8957,13 @@
         <v>191</v>
       </c>
       <c r="C95" t="n">
+        <v>49</v>
+      </c>
+      <c r="D95" t="n">
+        <v>60</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3803,6 +8975,13 @@
         <v>193</v>
       </c>
       <c r="C96" t="n">
+        <v>65</v>
+      </c>
+      <c r="D96" t="n">
+        <v>69</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3814,6 +8993,13 @@
         <v>195</v>
       </c>
       <c r="C97" t="n">
+        <v>46</v>
+      </c>
+      <c r="D97" t="n">
+        <v>54</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3825,6 +9011,13 @@
         <v>197</v>
       </c>
       <c r="C98" t="n">
+        <v>55</v>
+      </c>
+      <c r="D98" t="n">
+        <v>58</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3836,6 +9029,13 @@
         <v>199</v>
       </c>
       <c r="C99" t="n">
+        <v>53</v>
+      </c>
+      <c r="D99" t="n">
+        <v>61</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3847,6 +9047,13 @@
         <v>201</v>
       </c>
       <c r="C100" t="n">
+        <v>53</v>
+      </c>
+      <c r="D100" t="n">
+        <v>59</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3858,6 +9065,13 @@
         <v>203</v>
       </c>
       <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>56</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3869,6 +9083,13 @@
         <v>205</v>
       </c>
       <c r="C102" t="n">
+        <v>48</v>
+      </c>
+      <c r="D102" t="n">
+        <v>61</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3882,6 +9103,13 @@
       <c r="C103" t="n">
         <v>69</v>
       </c>
+      <c r="D103" t="n">
+        <v>70</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -3891,6 +9119,13 @@
         <v>209</v>
       </c>
       <c r="C104" t="n">
+        <v>70</v>
+      </c>
+      <c r="D104" t="n">
+        <v>70</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="n">
         <v>68</v>
       </c>
     </row>
@@ -3902,6 +9137,13 @@
         <v>211</v>
       </c>
       <c r="C105" t="n">
+        <v>53</v>
+      </c>
+      <c r="D105" t="n">
+        <v>54</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3913,6 +9155,13 @@
         <v>213</v>
       </c>
       <c r="C106" t="n">
+        <v>69</v>
+      </c>
+      <c r="D106" t="n">
+        <v>72</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="n">
         <v>71</v>
       </c>
     </row>
@@ -3924,6 +9173,13 @@
         <v>215</v>
       </c>
       <c r="C107" t="n">
+        <v>44</v>
+      </c>
+      <c r="D107" t="n">
+        <v>56</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3935,6 +9191,13 @@
         <v>217</v>
       </c>
       <c r="C108" t="n">
+        <v>53</v>
+      </c>
+      <c r="D108" t="n">
+        <v>62</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3946,6 +9209,13 @@
         <v>219</v>
       </c>
       <c r="C109" t="n">
+        <v>52</v>
+      </c>
+      <c r="D109" t="n">
+        <v>60</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3957,6 +9227,13 @@
         <v>221</v>
       </c>
       <c r="C110" t="n">
+        <v>48</v>
+      </c>
+      <c r="D110" t="n">
+        <v>55</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3968,6 +9245,13 @@
         <v>223</v>
       </c>
       <c r="C111" t="n">
+        <v>68</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="n">
         <v>69</v>
       </c>
     </row>
@@ -3979,6 +9263,13 @@
         <v>225</v>
       </c>
       <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>57</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3990,6 +9281,13 @@
         <v>227</v>
       </c>
       <c r="C113" t="n">
+        <v>52</v>
+      </c>
+      <c r="D113" t="n">
+        <v>59</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="n">
         <v>53</v>
       </c>
     </row>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -715,13 +715,13 @@
     <t>Name: uganda-leaving-exam-perf-rate</t>
   </si>
   <si>
-    <t>Description: Primary Leaving Exam Performance Index</t>
+    <t>Description: Primary leaving exam performance index</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Education abstracts 2010-2013, budget data - Ministry of Education</t>
+    <t>Source: Education abstracts 2010â€“2013, budget data â€“ Ministry of Education</t>
   </si>
   <si>
     <t>Source-link: http://www.education.go.ug/data/smenu/4/Statistics%20Abstract%20.html</t>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -715,7 +715,7 @@
     <t>Name: uganda-leaving-exam-perf-rate</t>
   </si>
   <si>
-    <t>Description: Primary leaving exam performance index</t>
+    <t>Description: % of pupils passing the primary education leaving exam</t>
   </si>
   <si>
     <t>Units of measure: unit</t>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -777,52 +1113,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1193,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2010</v>
       </c>
@@ -869,7 +1207,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>2011</v>
       </c>
@@ -881,7 +1221,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>2012</v>
       </c>
@@ -891,7 +1233,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>2013</v>
       </c>
@@ -901,9 +1245,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="n">
         <v>2010</v>
       </c>
@@ -913,9 +1259,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="n">
         <v>2011</v>
       </c>
@@ -925,9 +1273,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
         <v>2012</v>
       </c>
@@ -935,9 +1285,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="n">
         <v>2013</v>
       </c>
@@ -947,9 +1299,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="n">
         <v>2010</v>
       </c>
@@ -959,9 +1313,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="n">
         <v>2011</v>
       </c>
@@ -971,9 +1327,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="n">
         <v>2012</v>
       </c>
@@ -981,9 +1339,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="n">
         <v>2013</v>
       </c>
@@ -993,9 +1353,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="n">
         <v>2010</v>
       </c>
@@ -1005,9 +1367,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" t="n">
         <v>2011</v>
       </c>
@@ -1017,9 +1381,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" t="n">
         <v>2012</v>
       </c>
@@ -1027,9 +1393,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" t="n">
         <v>2013</v>
       </c>
@@ -1039,9 +1407,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18"/>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="n">
         <v>2010</v>
       </c>
@@ -1051,9 +1421,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" t="n">
         <v>2011</v>
       </c>
@@ -1063,9 +1435,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="n">
         <v>2012</v>
       </c>
@@ -1073,9 +1447,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21"/>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="n">
         <v>2013</v>
       </c>
@@ -1085,9 +1461,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="n">
         <v>2010</v>
       </c>
@@ -1097,9 +1475,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="n">
         <v>2011</v>
       </c>
@@ -1109,9 +1489,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24"/>
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" t="n">
         <v>2012</v>
       </c>
@@ -1119,9 +1501,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25"/>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="n">
         <v>2013</v>
       </c>
@@ -1131,9 +1515,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26"/>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" t="n">
         <v>2010</v>
       </c>
@@ -1143,9 +1529,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27"/>
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" t="n">
         <v>2011</v>
       </c>
@@ -1155,9 +1543,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" t="n">
         <v>2012</v>
       </c>
@@ -1165,9 +1555,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="n">
         <v>2013</v>
       </c>
@@ -1177,9 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" t="n">
         <v>2010</v>
       </c>
@@ -1189,9 +1583,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" t="n">
         <v>2011</v>
       </c>
@@ -1201,9 +1597,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" t="n">
         <v>2012</v>
       </c>
@@ -1211,9 +1609,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="n">
         <v>2013</v>
       </c>
@@ -1223,9 +1623,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" t="n">
         <v>2010</v>
       </c>
@@ -1235,9 +1637,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35"/>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" t="n">
         <v>2011</v>
       </c>
@@ -1247,9 +1651,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36"/>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="n">
         <v>2012</v>
       </c>
@@ -1257,9 +1663,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37"/>
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" t="n">
         <v>2013</v>
       </c>
@@ -1269,9 +1677,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
       <c r="C38" t="n">
         <v>2010</v>
       </c>
@@ -1281,9 +1691,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
       <c r="C39" t="n">
         <v>2011</v>
       </c>
@@ -1293,9 +1705,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40"/>
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="n">
         <v>2012</v>
       </c>
@@ -1303,9 +1717,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41"/>
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
       <c r="C41" t="n">
         <v>2013</v>
       </c>
@@ -1315,9 +1731,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="n">
         <v>2010</v>
       </c>
@@ -1327,9 +1745,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="n">
         <v>2011</v>
       </c>
@@ -1339,9 +1759,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44"/>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" t="n">
         <v>2012</v>
       </c>
@@ -1349,9 +1771,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45"/>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="n">
         <v>2013</v>
       </c>
@@ -1361,9 +1785,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46"/>
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" t="n">
         <v>2010</v>
       </c>
@@ -1373,9 +1799,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" t="n">
         <v>2011</v>
       </c>
@@ -1385,9 +1813,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" t="n">
         <v>2012</v>
       </c>
@@ -1395,9 +1825,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49"/>
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" t="n">
         <v>2013</v>
       </c>
@@ -1407,9 +1839,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50"/>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
       <c r="C50" t="n">
         <v>2010</v>
       </c>
@@ -1419,9 +1853,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51"/>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
       <c r="C51" t="n">
         <v>2011</v>
       </c>
@@ -1431,9 +1867,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52"/>
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" t="n">
         <v>2012</v>
       </c>
@@ -1441,9 +1879,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" t="n">
         <v>2013</v>
       </c>
@@ -1453,9 +1893,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" t="n">
         <v>2010</v>
       </c>
@@ -1465,9 +1907,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55"/>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="n">
         <v>2011</v>
       </c>
@@ -1477,9 +1921,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56"/>
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" t="n">
         <v>2012</v>
       </c>
@@ -1487,9 +1933,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57"/>
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" t="n">
         <v>2013</v>
       </c>
@@ -1499,9 +1947,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58"/>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" t="n">
         <v>2010</v>
       </c>
@@ -1511,9 +1961,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59"/>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" t="n">
         <v>2011</v>
       </c>
@@ -1523,9 +1975,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60"/>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
       <c r="C60" t="n">
         <v>2012</v>
       </c>
@@ -1533,9 +1987,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61"/>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
       <c r="C61" t="n">
         <v>2013</v>
       </c>
@@ -1545,9 +2001,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62"/>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="n">
         <v>2010</v>
       </c>
@@ -1557,9 +2015,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63"/>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" t="n">
         <v>2011</v>
       </c>
@@ -1569,9 +2029,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64"/>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" t="n">
         <v>2012</v>
       </c>
@@ -1579,9 +2041,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65"/>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" t="n">
         <v>2013</v>
       </c>
@@ -1591,9 +2055,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66"/>
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" t="n">
         <v>2010</v>
       </c>
@@ -1603,9 +2069,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67"/>
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" t="n">
         <v>2011</v>
       </c>
@@ -1615,9 +2083,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68"/>
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" t="n">
         <v>2012</v>
       </c>
@@ -1625,9 +2095,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69"/>
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
       <c r="C69" t="n">
         <v>2013</v>
       </c>
@@ -1637,9 +2109,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70"/>
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
       <c r="C70" t="n">
         <v>2010</v>
       </c>
@@ -1649,9 +2123,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71"/>
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" t="n">
         <v>2011</v>
       </c>
@@ -1661,9 +2137,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72"/>
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
       <c r="C72" t="n">
         <v>2012</v>
       </c>
@@ -1671,9 +2149,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73"/>
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
       <c r="C73" t="n">
         <v>2013</v>
       </c>
@@ -1683,9 +2163,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74"/>
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" t="n">
         <v>2010</v>
       </c>
@@ -1695,9 +2177,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75"/>
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" t="n">
         <v>2011</v>
       </c>
@@ -1707,9 +2191,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76"/>
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" t="n">
         <v>2012</v>
       </c>
@@ -1717,9 +2203,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77"/>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" t="n">
         <v>2013</v>
       </c>
@@ -1729,9 +2217,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78"/>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
       <c r="C78" t="n">
         <v>2010</v>
       </c>
@@ -1741,9 +2231,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79"/>
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" t="n">
         <v>2011</v>
       </c>
@@ -1753,9 +2245,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80"/>
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" t="n">
         <v>2012</v>
       </c>
@@ -1763,9 +2257,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81"/>
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" t="n">
         <v>2013</v>
       </c>
@@ -1775,9 +2271,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82"/>
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" t="n">
         <v>2010</v>
       </c>
@@ -1787,9 +2285,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83"/>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" t="n">
         <v>2011</v>
       </c>
@@ -1799,9 +2299,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84"/>
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" t="n">
         <v>2012</v>
       </c>
@@ -1809,9 +2311,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85"/>
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" t="n">
         <v>2013</v>
       </c>
@@ -1821,9 +2325,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86"/>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="n">
         <v>2010</v>
       </c>
@@ -1833,9 +2339,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87"/>
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" t="n">
         <v>2011</v>
       </c>
@@ -1845,9 +2353,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88"/>
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" t="n">
         <v>2012</v>
       </c>
@@ -1855,9 +2365,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89"/>
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" t="n">
         <v>2013</v>
       </c>
@@ -1867,9 +2379,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90"/>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" t="n">
         <v>2010</v>
       </c>
@@ -1879,9 +2393,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91"/>
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" t="n">
         <v>2011</v>
       </c>
@@ -1891,9 +2407,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92"/>
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" t="n">
         <v>2012</v>
       </c>
@@ -1901,9 +2419,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93"/>
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" t="n">
         <v>2013</v>
       </c>
@@ -1913,9 +2433,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94"/>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" t="n">
         <v>2010</v>
       </c>
@@ -1925,9 +2447,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95"/>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" t="n">
         <v>2011</v>
       </c>
@@ -1937,9 +2461,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96"/>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" t="n">
         <v>2012</v>
       </c>
@@ -1947,9 +2473,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97"/>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" t="n">
         <v>2013</v>
       </c>
@@ -1959,9 +2487,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98"/>
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" t="n">
         <v>2010</v>
       </c>
@@ -1971,9 +2501,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99"/>
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" t="n">
         <v>2011</v>
       </c>
@@ -1983,9 +2515,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100"/>
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" t="n">
         <v>2012</v>
       </c>
@@ -1993,9 +2527,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101"/>
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" t="n">
         <v>2013</v>
       </c>
@@ -2005,9 +2541,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102"/>
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
       <c r="C102" t="n">
         <v>2010</v>
       </c>
@@ -2017,9 +2555,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103"/>
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
       <c r="C103" t="n">
         <v>2011</v>
       </c>
@@ -2029,9 +2569,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104"/>
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" t="n">
         <v>2012</v>
       </c>
@@ -2039,9 +2581,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105"/>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" t="n">
         <v>2013</v>
       </c>
@@ -2051,9 +2595,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106"/>
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
       <c r="C106" t="n">
         <v>2010</v>
       </c>
@@ -2063,9 +2609,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107"/>
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
       <c r="C107" t="n">
         <v>2011</v>
       </c>
@@ -2075,9 +2623,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108"/>
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
       <c r="C108" t="n">
         <v>2012</v>
       </c>
@@ -2085,9 +2635,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109"/>
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>2013</v>
       </c>
@@ -2097,9 +2649,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110"/>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
       <c r="C110" t="n">
         <v>2010</v>
       </c>
@@ -2109,9 +2663,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111"/>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
       <c r="C111" t="n">
         <v>2011</v>
       </c>
@@ -2121,9 +2677,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112"/>
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
       <c r="C112" t="n">
         <v>2012</v>
       </c>
@@ -2131,9 +2689,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113"/>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
       <c r="C113" t="n">
         <v>2013</v>
       </c>
@@ -2143,9 +2703,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" t="n">
         <v>2010</v>
       </c>
@@ -2155,9 +2717,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" t="n">
         <v>2011</v>
       </c>
@@ -2167,9 +2731,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116"/>
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" t="n">
         <v>2012</v>
       </c>
@@ -2177,9 +2743,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117"/>
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" t="n">
         <v>2013</v>
       </c>
@@ -2189,9 +2757,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118"/>
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" t="n">
         <v>2010</v>
       </c>
@@ -2201,9 +2771,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119"/>
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
       <c r="C119" t="n">
         <v>2011</v>
       </c>
@@ -2213,9 +2785,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120"/>
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
       <c r="C120" t="n">
         <v>2012</v>
       </c>
@@ -2223,9 +2797,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121"/>
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
       <c r="C121" t="n">
         <v>2013</v>
       </c>
@@ -2235,9 +2811,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122"/>
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
       <c r="C122" t="n">
         <v>2010</v>
       </c>
@@ -2247,9 +2825,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123"/>
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
       <c r="C123" t="n">
         <v>2011</v>
       </c>
@@ -2259,9 +2839,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124"/>
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
       <c r="C124" t="n">
         <v>2012</v>
       </c>
@@ -2269,9 +2851,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
       <c r="C125" t="n">
         <v>2013</v>
       </c>
@@ -2281,9 +2865,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126"/>
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
       <c r="C126" t="n">
         <v>2010</v>
       </c>
@@ -2293,9 +2879,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127"/>
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" t="n">
         <v>2011</v>
       </c>
@@ -2305,9 +2893,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128"/>
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
       <c r="C128" t="n">
         <v>2012</v>
       </c>
@@ -2315,9 +2905,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129"/>
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
       <c r="C129" t="n">
         <v>2013</v>
       </c>
@@ -2327,9 +2919,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130"/>
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
       <c r="C130" t="n">
         <v>2010</v>
       </c>
@@ -2339,9 +2933,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131"/>
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
       <c r="C131" t="n">
         <v>2011</v>
       </c>
@@ -2351,9 +2947,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132"/>
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
       <c r="C132" t="n">
         <v>2012</v>
       </c>
@@ -2361,9 +2959,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133"/>
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
       <c r="C133" t="n">
         <v>2013</v>
       </c>
@@ -2373,9 +2973,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134"/>
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>2010</v>
       </c>
@@ -2385,9 +2987,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135"/>
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
       <c r="C135" t="n">
         <v>2011</v>
       </c>
@@ -2397,9 +3001,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136"/>
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>2012</v>
       </c>
@@ -2407,9 +3013,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137"/>
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
       <c r="C137" t="n">
         <v>2013</v>
       </c>
@@ -2419,9 +3027,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B138"/>
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
       <c r="C138" t="n">
         <v>2010</v>
       </c>
@@ -2431,9 +3041,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139"/>
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
       <c r="C139" t="n">
         <v>2011</v>
       </c>
@@ -2443,9 +3055,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140"/>
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
       <c r="C140" t="n">
         <v>2012</v>
       </c>
@@ -2453,9 +3067,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141"/>
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
       <c r="C141" t="n">
         <v>2013</v>
       </c>
@@ -2465,9 +3081,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142"/>
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
       <c r="C142" t="n">
         <v>2010</v>
       </c>
@@ -2477,9 +3095,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143"/>
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
       <c r="C143" t="n">
         <v>2011</v>
       </c>
@@ -2489,9 +3109,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144"/>
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
       <c r="C144" t="n">
         <v>2012</v>
       </c>
@@ -2499,9 +3121,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145"/>
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
       <c r="C145" t="n">
         <v>2013</v>
       </c>
@@ -2511,9 +3135,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146"/>
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
       <c r="C146" t="n">
         <v>2010</v>
       </c>
@@ -2523,9 +3149,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147"/>
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" t="n">
         <v>2011</v>
       </c>
@@ -2535,9 +3163,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148"/>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
       <c r="C148" t="n">
         <v>2012</v>
       </c>
@@ -2545,9 +3175,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149"/>
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
       <c r="C149" t="n">
         <v>2013</v>
       </c>
@@ -2557,9 +3189,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150"/>
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
       <c r="C150" t="n">
         <v>2010</v>
       </c>
@@ -2569,9 +3203,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151"/>
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
       <c r="C151" t="n">
         <v>2011</v>
       </c>
@@ -2581,9 +3217,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152"/>
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
       <c r="C152" t="n">
         <v>2012</v>
       </c>
@@ -2591,9 +3229,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153"/>
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
       <c r="C153" t="n">
         <v>2013</v>
       </c>
@@ -2603,9 +3243,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154"/>
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
       <c r="C154" t="n">
         <v>2010</v>
       </c>
@@ -2615,9 +3257,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155"/>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
       <c r="C155" t="n">
         <v>2011</v>
       </c>
@@ -2627,9 +3271,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156"/>
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
       <c r="C156" t="n">
         <v>2012</v>
       </c>
@@ -2637,9 +3283,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157"/>
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
       <c r="C157" t="n">
         <v>2013</v>
       </c>
@@ -2649,9 +3297,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158"/>
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
       <c r="C158" t="n">
         <v>2010</v>
       </c>
@@ -2661,9 +3311,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159"/>
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
       <c r="C159" t="n">
         <v>2011</v>
       </c>
@@ -2673,9 +3325,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160"/>
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
       <c r="C160" t="n">
         <v>2012</v>
       </c>
@@ -2683,9 +3337,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161"/>
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
       <c r="C161" t="n">
         <v>2013</v>
       </c>
@@ -2695,9 +3351,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162"/>
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
       <c r="C162" t="n">
         <v>2010</v>
       </c>
@@ -2707,9 +3365,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163"/>
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
       <c r="C163" t="n">
         <v>2011</v>
       </c>
@@ -2719,9 +3379,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164"/>
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
       <c r="C164" t="n">
         <v>2012</v>
       </c>
@@ -2729,9 +3391,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165"/>
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
       <c r="C165" t="n">
         <v>2013</v>
       </c>
@@ -2741,9 +3405,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166"/>
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
       <c r="C166" t="n">
         <v>2010</v>
       </c>
@@ -2753,9 +3419,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167"/>
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
       <c r="C167" t="n">
         <v>2011</v>
       </c>
@@ -2765,9 +3433,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168"/>
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
       <c r="C168" t="n">
         <v>2012</v>
       </c>
@@ -2775,9 +3445,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169"/>
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
       <c r="C169" t="n">
         <v>2013</v>
       </c>
@@ -2787,9 +3459,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170"/>
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
       <c r="C170" t="n">
         <v>2010</v>
       </c>
@@ -2799,9 +3473,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171"/>
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
       <c r="C171" t="n">
         <v>2011</v>
       </c>
@@ -2811,9 +3487,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172"/>
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
       <c r="C172" t="n">
         <v>2012</v>
       </c>
@@ -2821,9 +3499,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173"/>
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
       <c r="C173" t="n">
         <v>2013</v>
       </c>
@@ -2833,9 +3513,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174"/>
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
       <c r="C174" t="n">
         <v>2010</v>
       </c>
@@ -2845,9 +3527,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175"/>
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
       <c r="C175" t="n">
         <v>2011</v>
       </c>
@@ -2857,9 +3541,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176"/>
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
       <c r="C176" t="n">
         <v>2012</v>
       </c>
@@ -2867,9 +3553,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177"/>
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
       <c r="C177" t="n">
         <v>2013</v>
       </c>
@@ -2879,9 +3567,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178"/>
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
       <c r="C178" t="n">
         <v>2010</v>
       </c>
@@ -2891,9 +3581,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179"/>
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
       <c r="C179" t="n">
         <v>2011</v>
       </c>
@@ -2903,9 +3595,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180"/>
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
       <c r="C180" t="n">
         <v>2012</v>
       </c>
@@ -2913,9 +3607,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181"/>
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
       <c r="C181" t="n">
         <v>2013</v>
       </c>
@@ -2925,9 +3621,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182"/>
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
       <c r="C182" t="n">
         <v>2010</v>
       </c>
@@ -2937,9 +3635,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B183"/>
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
       <c r="C183" t="n">
         <v>2011</v>
       </c>
@@ -2949,9 +3649,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184"/>
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
       <c r="C184" t="n">
         <v>2012</v>
       </c>
@@ -2959,9 +3661,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185"/>
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
       <c r="C185" t="n">
         <v>2013</v>
       </c>
@@ -2971,9 +3675,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186"/>
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
       <c r="C186" t="n">
         <v>2010</v>
       </c>
@@ -2983,9 +3689,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>50</v>
-      </c>
-      <c r="B187"/>
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
       <c r="C187" t="n">
         <v>2011</v>
       </c>
@@ -2995,9 +3703,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
-      </c>
-      <c r="B188"/>
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
       <c r="C188" t="n">
         <v>2012</v>
       </c>
@@ -3005,9 +3715,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189"/>
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
       <c r="C189" t="n">
         <v>2013</v>
       </c>
@@ -3017,9 +3729,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>51</v>
-      </c>
-      <c r="B190"/>
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
       <c r="C190" t="n">
         <v>2010</v>
       </c>
@@ -3029,9 +3743,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191"/>
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
       <c r="C191" t="n">
         <v>2011</v>
       </c>
@@ -3041,9 +3757,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>51</v>
-      </c>
-      <c r="B192"/>
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
       <c r="C192" t="n">
         <v>2012</v>
       </c>
@@ -3051,9 +3769,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>51</v>
-      </c>
-      <c r="B193"/>
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" t="n">
         <v>2013</v>
       </c>
@@ -3063,9 +3783,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194"/>
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
       <c r="C194" t="n">
         <v>2010</v>
       </c>
@@ -3075,9 +3797,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195"/>
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
       <c r="C195" t="n">
         <v>2011</v>
       </c>
@@ -3087,9 +3811,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196"/>
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
       <c r="C196" t="n">
         <v>2012</v>
       </c>
@@ -3097,9 +3823,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197"/>
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="C197" t="n">
         <v>2013</v>
       </c>
@@ -3109,9 +3837,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>53</v>
-      </c>
-      <c r="B198"/>
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" t="n">
         <v>2010</v>
       </c>
@@ -3121,9 +3851,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199"/>
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
       <c r="C199" t="n">
         <v>2011</v>
       </c>
@@ -3133,9 +3865,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200"/>
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
       <c r="C200" t="n">
         <v>2012</v>
       </c>
@@ -3143,9 +3877,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201"/>
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
       <c r="C201" t="n">
         <v>2013</v>
       </c>
@@ -3155,9 +3891,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>54</v>
-      </c>
-      <c r="B202"/>
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
       <c r="C202" t="n">
         <v>2010</v>
       </c>
@@ -3167,9 +3905,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203"/>
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
       <c r="C203" t="n">
         <v>2011</v>
       </c>
@@ -3179,9 +3919,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204"/>
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
       <c r="C204" t="n">
         <v>2012</v>
       </c>
@@ -3189,9 +3931,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>54</v>
-      </c>
-      <c r="B205"/>
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
       <c r="C205" t="n">
         <v>2013</v>
       </c>
@@ -3201,9 +3945,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206"/>
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
       <c r="C206" t="n">
         <v>2010</v>
       </c>
@@ -3213,9 +3959,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207"/>
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
       <c r="C207" t="n">
         <v>2011</v>
       </c>
@@ -3225,9 +3973,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208"/>
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
       <c r="C208" t="n">
         <v>2012</v>
       </c>
@@ -3235,9 +3985,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209"/>
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
       <c r="C209" t="n">
         <v>2013</v>
       </c>
@@ -3247,9 +3999,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210"/>
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
       <c r="C210" t="n">
         <v>2010</v>
       </c>
@@ -3259,9 +4013,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211"/>
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
       <c r="C211" t="n">
         <v>2011</v>
       </c>
@@ -3271,9 +4027,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212"/>
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
       <c r="C212" t="n">
         <v>2012</v>
       </c>
@@ -3281,9 +4039,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B213"/>
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
       <c r="C213" t="n">
         <v>2013</v>
       </c>
@@ -3293,9 +4053,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B214"/>
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
       <c r="C214" t="n">
         <v>2010</v>
       </c>
@@ -3305,9 +4067,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215"/>
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
       <c r="C215" t="n">
         <v>2011</v>
       </c>
@@ -3317,9 +4081,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216"/>
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
       <c r="C216" t="n">
         <v>2012</v>
       </c>
@@ -3327,9 +4093,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217"/>
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
       <c r="C217" t="n">
         <v>2013</v>
       </c>
@@ -3339,9 +4107,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B218"/>
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
       <c r="C218" t="n">
         <v>2010</v>
       </c>
@@ -3351,9 +4121,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219"/>
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
       <c r="C219" t="n">
         <v>2011</v>
       </c>
@@ -3363,9 +4135,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220"/>
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
       <c r="C220" t="n">
         <v>2012</v>
       </c>
@@ -3373,9 +4147,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
-      </c>
-      <c r="B221"/>
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
       <c r="C221" t="n">
         <v>2013</v>
       </c>
@@ -3385,9 +4161,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222"/>
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" t="n">
         <v>2010</v>
       </c>
@@ -3397,9 +4175,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223"/>
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" t="n">
         <v>2011</v>
       </c>
@@ -3409,9 +4189,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224"/>
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
       <c r="C224" t="n">
         <v>2012</v>
       </c>
@@ -3419,9 +4201,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225"/>
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
       <c r="C225" t="n">
         <v>2013</v>
       </c>
@@ -3431,9 +4215,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226"/>
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
       <c r="C226" t="n">
         <v>2010</v>
       </c>
@@ -3443,9 +4229,11 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227"/>
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
       <c r="C227" t="n">
         <v>2011</v>
       </c>
@@ -3455,9 +4243,11 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228"/>
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
       <c r="C228" t="n">
         <v>2012</v>
       </c>
@@ -3465,9 +4255,11 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229"/>
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
       <c r="C229" t="n">
         <v>2013</v>
       </c>
@@ -3477,9 +4269,11 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230"/>
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
       <c r="C230" t="n">
         <v>2010</v>
       </c>
@@ -3489,9 +4283,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231"/>
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
       <c r="C231" t="n">
         <v>2011</v>
       </c>
@@ -3501,9 +4297,11 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232"/>
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" t="n">
         <v>2012</v>
       </c>
@@ -3511,9 +4309,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233"/>
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
       <c r="C233" t="n">
         <v>2013</v>
       </c>
@@ -3523,9 +4323,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234"/>
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
       <c r="C234" t="n">
         <v>2010</v>
       </c>
@@ -3535,9 +4337,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235"/>
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" t="n">
         <v>2011</v>
       </c>
@@ -3547,9 +4351,11 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>62</v>
-      </c>
-      <c r="B236"/>
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
       <c r="C236" t="n">
         <v>2012</v>
       </c>
@@ -3557,9 +4363,11 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>62</v>
-      </c>
-      <c r="B237"/>
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
       <c r="C237" t="n">
         <v>2013</v>
       </c>
@@ -3569,9 +4377,11 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238"/>
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
       <c r="C238" t="n">
         <v>2010</v>
       </c>
@@ -3581,9 +4391,11 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239"/>
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
       <c r="C239" t="n">
         <v>2011</v>
       </c>
@@ -3593,9 +4405,11 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>63</v>
-      </c>
-      <c r="B240"/>
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
       <c r="C240" t="n">
         <v>2012</v>
       </c>
@@ -3603,9 +4417,11 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241"/>
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
       <c r="C241" t="n">
         <v>2013</v>
       </c>
@@ -3615,9 +4431,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242"/>
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
       <c r="C242" t="n">
         <v>2010</v>
       </c>
@@ -3627,9 +4445,11 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243"/>
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
       <c r="C243" t="n">
         <v>2011</v>
       </c>
@@ -3639,9 +4459,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244"/>
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
       <c r="C244" t="n">
         <v>2012</v>
       </c>
@@ -3649,9 +4471,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B245"/>
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
       <c r="C245" t="n">
         <v>2013</v>
       </c>
@@ -3661,9 +4485,11 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246"/>
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
       <c r="C246" t="n">
         <v>2010</v>
       </c>
@@ -3673,9 +4499,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247"/>
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
       <c r="C247" t="n">
         <v>2011</v>
       </c>
@@ -3685,9 +4513,11 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B248"/>
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
       <c r="C248" t="n">
         <v>2012</v>
       </c>
@@ -3695,9 +4525,11 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
-      </c>
-      <c r="B249"/>
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
       <c r="C249" t="n">
         <v>2013</v>
       </c>
@@ -3707,9 +4539,11 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250"/>
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
       <c r="C250" t="n">
         <v>2010</v>
       </c>
@@ -3719,9 +4553,11 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251"/>
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
       <c r="C251" t="n">
         <v>2011</v>
       </c>
@@ -3731,9 +4567,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
-      </c>
-      <c r="B252"/>
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
       <c r="C252" t="n">
         <v>2012</v>
       </c>
@@ -3741,9 +4579,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
-      </c>
-      <c r="B253"/>
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
       <c r="C253" t="n">
         <v>2013</v>
       </c>
@@ -3753,9 +4593,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="B254"/>
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
       <c r="C254" t="n">
         <v>2010</v>
       </c>
@@ -3765,9 +4607,11 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255"/>
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
       <c r="C255" t="n">
         <v>2011</v>
       </c>
@@ -3777,9 +4621,11 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256"/>
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
       <c r="C256" t="n">
         <v>2012</v>
       </c>
@@ -3787,9 +4633,11 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257"/>
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
       <c r="C257" t="n">
         <v>2013</v>
       </c>
@@ -3799,9 +4647,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B258"/>
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
       <c r="C258" t="n">
         <v>2010</v>
       </c>
@@ -3811,9 +4661,11 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259"/>
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
       <c r="C259" t="n">
         <v>2011</v>
       </c>
@@ -3823,9 +4675,11 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
-      </c>
-      <c r="B260"/>
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
       <c r="C260" t="n">
         <v>2012</v>
       </c>
@@ -3833,9 +4687,11 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
-      </c>
-      <c r="B261"/>
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
       <c r="C261" t="n">
         <v>2013</v>
       </c>
@@ -3845,9 +4701,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262"/>
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
       <c r="C262" t="n">
         <v>2010</v>
       </c>
@@ -3857,9 +4715,11 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>69</v>
-      </c>
-      <c r="B263"/>
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
       <c r="C263" t="n">
         <v>2011</v>
       </c>
@@ -3869,9 +4729,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
-      </c>
-      <c r="B264"/>
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
       <c r="C264" t="n">
         <v>2012</v>
       </c>
@@ -3879,9 +4741,11 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
-      </c>
-      <c r="B265"/>
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
       <c r="C265" t="n">
         <v>2013</v>
       </c>
@@ -3891,9 +4755,11 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266"/>
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
       <c r="C266" t="n">
         <v>2010</v>
       </c>
@@ -3903,9 +4769,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>70</v>
-      </c>
-      <c r="B267"/>
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
       <c r="C267" t="n">
         <v>2011</v>
       </c>
@@ -3915,9 +4783,11 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268"/>
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
       <c r="C268" t="n">
         <v>2012</v>
       </c>
@@ -3925,9 +4795,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269"/>
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
       <c r="C269" t="n">
         <v>2013</v>
       </c>
@@ -3937,9 +4809,11 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270"/>
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
       <c r="C270" t="n">
         <v>2010</v>
       </c>
@@ -3949,9 +4823,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271"/>
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
       <c r="C271" t="n">
         <v>2011</v>
       </c>
@@ -3961,9 +4837,11 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
-      </c>
-      <c r="B272"/>
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
       <c r="C272" t="n">
         <v>2012</v>
       </c>
@@ -3971,9 +4849,11 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273"/>
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
       <c r="C273" t="n">
         <v>2013</v>
       </c>
@@ -3983,9 +4863,11 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274"/>
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
       <c r="C274" t="n">
         <v>2010</v>
       </c>
@@ -3995,9 +4877,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
-      </c>
-      <c r="B275"/>
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
       <c r="C275" t="n">
         <v>2011</v>
       </c>
@@ -4007,9 +4891,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
-      </c>
-      <c r="B276"/>
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
       <c r="C276" t="n">
         <v>2012</v>
       </c>
@@ -4017,9 +4903,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
-      </c>
-      <c r="B277"/>
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
       <c r="C277" t="n">
         <v>2013</v>
       </c>
@@ -4029,9 +4917,11 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>73</v>
-      </c>
-      <c r="B278"/>
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
       <c r="C278" t="n">
         <v>2010</v>
       </c>
@@ -4041,9 +4931,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>73</v>
-      </c>
-      <c r="B279"/>
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
       <c r="C279" t="n">
         <v>2011</v>
       </c>
@@ -4053,9 +4945,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280"/>
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
       <c r="C280" t="n">
         <v>2012</v>
       </c>
@@ -4063,9 +4957,11 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281"/>
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
       <c r="C281" t="n">
         <v>2013</v>
       </c>
@@ -4075,9 +4971,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282"/>
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
       <c r="C282" t="n">
         <v>2010</v>
       </c>
@@ -4087,9 +4985,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283"/>
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
       <c r="C283" t="n">
         <v>2011</v>
       </c>
@@ -4099,9 +4999,11 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284"/>
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
       <c r="C284" t="n">
         <v>2012</v>
       </c>
@@ -4109,9 +5011,11 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285"/>
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
       <c r="C285" t="n">
         <v>2013</v>
       </c>
@@ -4121,9 +5025,11 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286"/>
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
       <c r="C286" t="n">
         <v>2010</v>
       </c>
@@ -4133,9 +5039,11 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>75</v>
-      </c>
-      <c r="B287"/>
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" t="n">
         <v>2011</v>
       </c>
@@ -4145,9 +5053,11 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288"/>
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
       <c r="C288" t="n">
         <v>2012</v>
       </c>
@@ -4155,9 +5065,11 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>75</v>
-      </c>
-      <c r="B289"/>
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
       <c r="C289" t="n">
         <v>2013</v>
       </c>
@@ -4167,9 +5079,11 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290"/>
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
       <c r="C290" t="n">
         <v>2010</v>
       </c>
@@ -4179,9 +5093,11 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291"/>
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
       <c r="C291" t="n">
         <v>2011</v>
       </c>
@@ -4191,9 +5107,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292"/>
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
       <c r="C292" t="n">
         <v>2012</v>
       </c>
@@ -4201,9 +5119,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293"/>
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
       <c r="C293" t="n">
         <v>2013</v>
       </c>
@@ -4213,9 +5133,11 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>77</v>
-      </c>
-      <c r="B294"/>
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
       <c r="C294" t="n">
         <v>2010</v>
       </c>
@@ -4225,9 +5147,11 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>77</v>
-      </c>
-      <c r="B295"/>
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
       <c r="C295" t="n">
         <v>2011</v>
       </c>
@@ -4237,9 +5161,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>77</v>
-      </c>
-      <c r="B296"/>
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
       <c r="C296" t="n">
         <v>2012</v>
       </c>
@@ -4247,9 +5173,11 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>77</v>
-      </c>
-      <c r="B297"/>
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
       <c r="C297" t="n">
         <v>2013</v>
       </c>
@@ -4259,9 +5187,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298"/>
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
       <c r="C298" t="n">
         <v>2010</v>
       </c>
@@ -4271,9 +5201,11 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299"/>
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
       <c r="C299" t="n">
         <v>2011</v>
       </c>
@@ -4283,9 +5215,11 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300"/>
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
       <c r="C300" t="n">
         <v>2012</v>
       </c>
@@ -4293,9 +5227,11 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301"/>
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
       <c r="C301" t="n">
         <v>2013</v>
       </c>
@@ -4305,9 +5241,11 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B302"/>
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
       <c r="C302" t="n">
         <v>2010</v>
       </c>
@@ -4317,9 +5255,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>79</v>
-      </c>
-      <c r="B303"/>
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
       <c r="C303" t="n">
         <v>2011</v>
       </c>
@@ -4329,9 +5269,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304"/>
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
       <c r="C304" t="n">
         <v>2012</v>
       </c>
@@ -4339,9 +5281,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>79</v>
-      </c>
-      <c r="B305"/>
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
       <c r="C305" t="n">
         <v>2013</v>
       </c>
@@ -4351,9 +5295,11 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>80</v>
-      </c>
-      <c r="B306"/>
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
       <c r="C306" t="n">
         <v>2010</v>
       </c>
@@ -4363,9 +5309,11 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>80</v>
-      </c>
-      <c r="B307"/>
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
       <c r="C307" t="n">
         <v>2011</v>
       </c>
@@ -4375,9 +5323,11 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308"/>
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
       <c r="C308" t="n">
         <v>2012</v>
       </c>
@@ -4385,9 +5335,11 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309"/>
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
       <c r="C309" t="n">
         <v>2013</v>
       </c>
@@ -4397,9 +5349,11 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>81</v>
-      </c>
-      <c r="B310"/>
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
       <c r="C310" t="n">
         <v>2010</v>
       </c>
@@ -4409,9 +5363,11 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>81</v>
-      </c>
-      <c r="B311"/>
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
       <c r="C311" t="n">
         <v>2011</v>
       </c>
@@ -4421,9 +5377,11 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>81</v>
-      </c>
-      <c r="B312"/>
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
       <c r="C312" t="n">
         <v>2012</v>
       </c>
@@ -4431,9 +5389,11 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>81</v>
-      </c>
-      <c r="B313"/>
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
       <c r="C313" t="n">
         <v>2013</v>
       </c>
@@ -4443,9 +5403,11 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
-      </c>
-      <c r="B314"/>
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
       <c r="C314" t="n">
         <v>2010</v>
       </c>
@@ -4455,9 +5417,11 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
-      </c>
-      <c r="B315"/>
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
       <c r="C315" t="n">
         <v>2011</v>
       </c>
@@ -4467,9 +5431,11 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
-      </c>
-      <c r="B316"/>
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
       <c r="C316" t="n">
         <v>2012</v>
       </c>
@@ -4477,9 +5443,11 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
-      </c>
-      <c r="B317"/>
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
       <c r="C317" t="n">
         <v>2013</v>
       </c>
@@ -4489,9 +5457,11 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318"/>
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
       <c r="C318" t="n">
         <v>2010</v>
       </c>
@@ -4501,9 +5471,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319"/>
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
       <c r="C319" t="n">
         <v>2011</v>
       </c>
@@ -4513,9 +5485,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320"/>
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
       <c r="C320" t="n">
         <v>2012</v>
       </c>
@@ -4523,9 +5497,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321"/>
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
       <c r="C321" t="n">
         <v>2013</v>
       </c>
@@ -4535,9 +5511,11 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>84</v>
-      </c>
-      <c r="B322"/>
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
       <c r="C322" t="n">
         <v>2010</v>
       </c>
@@ -4547,9 +5525,11 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>84</v>
-      </c>
-      <c r="B323"/>
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
       <c r="C323" t="n">
         <v>2011</v>
       </c>
@@ -4559,9 +5539,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324"/>
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
       <c r="C324" t="n">
         <v>2012</v>
       </c>
@@ -4569,9 +5551,11 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325"/>
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
       <c r="C325" t="n">
         <v>2013</v>
       </c>
@@ -4581,9 +5565,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326"/>
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
       <c r="C326" t="n">
         <v>2010</v>
       </c>
@@ -4593,9 +5579,11 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327"/>
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
       <c r="C327" t="n">
         <v>2011</v>
       </c>
@@ -4605,9 +5593,11 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328"/>
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
       <c r="C328" t="n">
         <v>2012</v>
       </c>
@@ -4615,9 +5605,11 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329"/>
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
       <c r="C329" t="n">
         <v>2013</v>
       </c>
@@ -4627,9 +5619,11 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>86</v>
-      </c>
-      <c r="B330"/>
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
       <c r="C330" t="n">
         <v>2010</v>
       </c>
@@ -4639,9 +5633,11 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>86</v>
-      </c>
-      <c r="B331"/>
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
       <c r="C331" t="n">
         <v>2011</v>
       </c>
@@ -4651,9 +5647,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>86</v>
-      </c>
-      <c r="B332"/>
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
       <c r="C332" t="n">
         <v>2012</v>
       </c>
@@ -4661,9 +5659,11 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>86</v>
-      </c>
-      <c r="B333"/>
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
       <c r="C333" t="n">
         <v>2013</v>
       </c>
@@ -4673,9 +5673,11 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>87</v>
-      </c>
-      <c r="B334"/>
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
       <c r="C334" t="n">
         <v>2010</v>
       </c>
@@ -4685,9 +5687,11 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>87</v>
-      </c>
-      <c r="B335"/>
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
       <c r="C335" t="n">
         <v>2011</v>
       </c>
@@ -4697,9 +5701,11 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
-      </c>
-      <c r="B336"/>
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
       <c r="C336" t="n">
         <v>2012</v>
       </c>
@@ -4707,9 +5713,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>87</v>
-      </c>
-      <c r="B337"/>
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
       <c r="C337" t="n">
         <v>2013</v>
       </c>
@@ -4719,9 +5727,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>88</v>
-      </c>
-      <c r="B338"/>
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
       <c r="C338" t="n">
         <v>2010</v>
       </c>
@@ -4731,9 +5741,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339"/>
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
       <c r="C339" t="n">
         <v>2011</v>
       </c>
@@ -4743,9 +5755,11 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>88</v>
-      </c>
-      <c r="B340"/>
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
       <c r="C340" t="n">
         <v>2012</v>
       </c>
@@ -4753,9 +5767,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>88</v>
-      </c>
-      <c r="B341"/>
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
       <c r="C341" t="n">
         <v>2013</v>
       </c>
@@ -4765,9 +5781,11 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342"/>
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
       <c r="C342" t="n">
         <v>2010</v>
       </c>
@@ -4777,9 +5795,11 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343"/>
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
       <c r="C343" t="n">
         <v>2011</v>
       </c>
@@ -4789,9 +5809,11 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344"/>
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
       <c r="C344" t="n">
         <v>2012</v>
       </c>
@@ -4799,9 +5821,11 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345"/>
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
       <c r="C345" t="n">
         <v>2013</v>
       </c>
@@ -4811,9 +5835,11 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>90</v>
-      </c>
-      <c r="B346"/>
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
       <c r="C346" t="n">
         <v>2010</v>
       </c>
@@ -4823,9 +5849,11 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>90</v>
-      </c>
-      <c r="B347"/>
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
       <c r="C347" t="n">
         <v>2011</v>
       </c>
@@ -4835,9 +5863,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>90</v>
-      </c>
-      <c r="B348"/>
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
       <c r="C348" t="n">
         <v>2012</v>
       </c>
@@ -4845,9 +5875,11 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>90</v>
-      </c>
-      <c r="B349"/>
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
       <c r="C349" t="n">
         <v>2013</v>
       </c>
@@ -4857,9 +5889,11 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>91</v>
-      </c>
-      <c r="B350"/>
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
       <c r="C350" t="n">
         <v>2010</v>
       </c>
@@ -4869,9 +5903,11 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>91</v>
-      </c>
-      <c r="B351"/>
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
       <c r="C351" t="n">
         <v>2011</v>
       </c>
@@ -4881,9 +5917,11 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>91</v>
-      </c>
-      <c r="B352"/>
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" t="n">
         <v>2012</v>
       </c>
@@ -4891,9 +5929,11 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>91</v>
-      </c>
-      <c r="B353"/>
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
       <c r="C353" t="n">
         <v>2013</v>
       </c>
@@ -4903,9 +5943,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354"/>
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
       <c r="C354" t="n">
         <v>2010</v>
       </c>
@@ -4915,9 +5957,11 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355"/>
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
       <c r="C355" t="n">
         <v>2011</v>
       </c>
@@ -4927,9 +5971,11 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356"/>
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
       <c r="C356" t="n">
         <v>2012</v>
       </c>
@@ -4937,9 +5983,11 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357"/>
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
       <c r="C357" t="n">
         <v>2013</v>
       </c>
@@ -4949,9 +5997,11 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>93</v>
-      </c>
-      <c r="B358"/>
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
       <c r="C358" t="n">
         <v>2010</v>
       </c>
@@ -4961,9 +6011,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>93</v>
-      </c>
-      <c r="B359"/>
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
       <c r="C359" t="n">
         <v>2011</v>
       </c>
@@ -4973,9 +6025,11 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>93</v>
-      </c>
-      <c r="B360"/>
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
       <c r="C360" t="n">
         <v>2012</v>
       </c>
@@ -4983,9 +6037,11 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>93</v>
-      </c>
-      <c r="B361"/>
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
       <c r="C361" t="n">
         <v>2013</v>
       </c>
@@ -4995,9 +6051,11 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362"/>
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
       <c r="C362" t="n">
         <v>2010</v>
       </c>
@@ -5007,9 +6065,11 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>94</v>
-      </c>
-      <c r="B363"/>
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
       <c r="C363" t="n">
         <v>2011</v>
       </c>
@@ -5019,9 +6079,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>94</v>
-      </c>
-      <c r="B364"/>
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
       <c r="C364" t="n">
         <v>2012</v>
       </c>
@@ -5029,9 +6091,11 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
-      </c>
-      <c r="B365"/>
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
       <c r="C365" t="n">
         <v>2013</v>
       </c>
@@ -5041,9 +6105,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>95</v>
-      </c>
-      <c r="B366"/>
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
       <c r="C366" t="n">
         <v>2010</v>
       </c>
@@ -5053,9 +6119,11 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367"/>
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
       <c r="C367" t="n">
         <v>2011</v>
       </c>
@@ -5065,9 +6133,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>95</v>
-      </c>
-      <c r="B368"/>
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
       <c r="C368" t="n">
         <v>2012</v>
       </c>
@@ -5075,9 +6145,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>95</v>
-      </c>
-      <c r="B369"/>
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
       <c r="C369" t="n">
         <v>2013</v>
       </c>
@@ -5087,9 +6159,11 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>96</v>
-      </c>
-      <c r="B370"/>
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
       <c r="C370" t="n">
         <v>2010</v>
       </c>
@@ -5099,9 +6173,11 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>96</v>
-      </c>
-      <c r="B371"/>
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
       <c r="C371" t="n">
         <v>2011</v>
       </c>
@@ -5111,9 +6187,11 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>96</v>
-      </c>
-      <c r="B372"/>
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
       <c r="C372" t="n">
         <v>2012</v>
       </c>
@@ -5121,9 +6199,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>96</v>
-      </c>
-      <c r="B373"/>
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
       <c r="C373" t="n">
         <v>2013</v>
       </c>
@@ -5133,9 +6213,11 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>97</v>
-      </c>
-      <c r="B374"/>
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
       <c r="C374" t="n">
         <v>2010</v>
       </c>
@@ -5145,9 +6227,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>97</v>
-      </c>
-      <c r="B375"/>
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
       <c r="C375" t="n">
         <v>2011</v>
       </c>
@@ -5157,9 +6241,11 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>97</v>
-      </c>
-      <c r="B376"/>
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
       <c r="C376" t="n">
         <v>2012</v>
       </c>
@@ -5167,9 +6253,11 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>97</v>
-      </c>
-      <c r="B377"/>
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
       <c r="C377" t="n">
         <v>2013</v>
       </c>
@@ -5179,9 +6267,11 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378"/>
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
       <c r="C378" t="n">
         <v>2010</v>
       </c>
@@ -5191,9 +6281,11 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379"/>
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
       <c r="C379" t="n">
         <v>2011</v>
       </c>
@@ -5203,9 +6295,11 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380"/>
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
       <c r="C380" t="n">
         <v>2012</v>
       </c>
@@ -5213,9 +6307,11 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381"/>
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
       <c r="C381" t="n">
         <v>2013</v>
       </c>
@@ -5225,9 +6321,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382"/>
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
       <c r="C382" t="n">
         <v>2010</v>
       </c>
@@ -5237,9 +6335,11 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383"/>
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
       <c r="C383" t="n">
         <v>2011</v>
       </c>
@@ -5249,9 +6349,11 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384"/>
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
       <c r="C384" t="n">
         <v>2012</v>
       </c>
@@ -5259,9 +6361,11 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385"/>
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
       <c r="C385" t="n">
         <v>2013</v>
       </c>
@@ -5271,9 +6375,11 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>100</v>
-      </c>
-      <c r="B386"/>
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
       <c r="C386" t="n">
         <v>2010</v>
       </c>
@@ -5283,9 +6389,11 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>100</v>
-      </c>
-      <c r="B387"/>
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
       <c r="C387" t="n">
         <v>2011</v>
       </c>
@@ -5295,9 +6403,11 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>100</v>
-      </c>
-      <c r="B388"/>
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
       <c r="C388" t="n">
         <v>2012</v>
       </c>
@@ -5305,9 +6415,11 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>100</v>
-      </c>
-      <c r="B389"/>
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
       <c r="C389" t="n">
         <v>2013</v>
       </c>
@@ -5317,9 +6429,11 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>101</v>
-      </c>
-      <c r="B390"/>
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
       <c r="C390" t="n">
         <v>2010</v>
       </c>
@@ -5329,9 +6443,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>101</v>
-      </c>
-      <c r="B391"/>
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
       <c r="C391" t="n">
         <v>2011</v>
       </c>
@@ -5341,9 +6457,11 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>101</v>
-      </c>
-      <c r="B392"/>
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
       <c r="C392" t="n">
         <v>2012</v>
       </c>
@@ -5351,9 +6469,11 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>101</v>
-      </c>
-      <c r="B393"/>
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
       <c r="C393" t="n">
         <v>2013</v>
       </c>
@@ -5363,9 +6483,11 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
-      </c>
-      <c r="B394"/>
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
       <c r="C394" t="n">
         <v>2010</v>
       </c>
@@ -5375,9 +6497,11 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>102</v>
-      </c>
-      <c r="B395"/>
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
       <c r="C395" t="n">
         <v>2011</v>
       </c>
@@ -5387,9 +6511,11 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>102</v>
-      </c>
-      <c r="B396"/>
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
       <c r="C396" t="n">
         <v>2012</v>
       </c>
@@ -5397,9 +6523,11 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>102</v>
-      </c>
-      <c r="B397"/>
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
       <c r="C397" t="n">
         <v>2013</v>
       </c>
@@ -5409,9 +6537,11 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>103</v>
-      </c>
-      <c r="B398"/>
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
       <c r="C398" t="n">
         <v>2010</v>
       </c>
@@ -5421,9 +6551,11 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399"/>
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
       <c r="C399" t="n">
         <v>2011</v>
       </c>
@@ -5433,9 +6565,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>103</v>
-      </c>
-      <c r="B400"/>
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
       <c r="C400" t="n">
         <v>2012</v>
       </c>
@@ -5443,9 +6577,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>103</v>
-      </c>
-      <c r="B401"/>
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
       <c r="C401" t="n">
         <v>2013</v>
       </c>
@@ -5455,9 +6591,11 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402"/>
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
       <c r="C402" t="n">
         <v>2010</v>
       </c>
@@ -5467,9 +6605,11 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>104</v>
-      </c>
-      <c r="B403"/>
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
       <c r="C403" t="n">
         <v>2011</v>
       </c>
@@ -5479,9 +6619,11 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>104</v>
-      </c>
-      <c r="B404"/>
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
       <c r="C404" t="n">
         <v>2012</v>
       </c>
@@ -5489,9 +6631,11 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>104</v>
-      </c>
-      <c r="B405"/>
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
       <c r="C405" t="n">
         <v>2013</v>
       </c>
@@ -5501,9 +6645,11 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>105</v>
-      </c>
-      <c r="B406"/>
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
       <c r="C406" t="n">
         <v>2010</v>
       </c>
@@ -5513,9 +6659,11 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>105</v>
-      </c>
-      <c r="B407"/>
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
       <c r="C407" t="n">
         <v>2011</v>
       </c>
@@ -5525,9 +6673,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>105</v>
-      </c>
-      <c r="B408"/>
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
       <c r="C408" t="n">
         <v>2012</v>
       </c>
@@ -5535,9 +6685,11 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>105</v>
-      </c>
-      <c r="B409"/>
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
       <c r="C409" t="n">
         <v>2013</v>
       </c>
@@ -5547,9 +6699,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>106</v>
-      </c>
-      <c r="B410"/>
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
       <c r="C410" t="n">
         <v>2010</v>
       </c>
@@ -5559,9 +6713,11 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>106</v>
-      </c>
-      <c r="B411"/>
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
       <c r="C411" t="n">
         <v>2011</v>
       </c>
@@ -5571,9 +6727,11 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>106</v>
-      </c>
-      <c r="B412"/>
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
       <c r="C412" t="n">
         <v>2012</v>
       </c>
@@ -5581,9 +6739,11 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>106</v>
-      </c>
-      <c r="B413"/>
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
       <c r="C413" t="n">
         <v>2013</v>
       </c>
@@ -5593,9 +6753,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>107</v>
-      </c>
-      <c r="B414"/>
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
       <c r="C414" t="n">
         <v>2010</v>
       </c>
@@ -5605,9 +6767,11 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>107</v>
-      </c>
-      <c r="B415"/>
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
       <c r="C415" t="n">
         <v>2011</v>
       </c>
@@ -5617,9 +6781,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>107</v>
-      </c>
-      <c r="B416"/>
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
       <c r="C416" t="n">
         <v>2012</v>
       </c>
@@ -5627,9 +6793,11 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>107</v>
-      </c>
-      <c r="B417"/>
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
       <c r="C417" t="n">
         <v>2013</v>
       </c>
@@ -5639,9 +6807,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>108</v>
-      </c>
-      <c r="B418"/>
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
       <c r="C418" t="n">
         <v>2010</v>
       </c>
@@ -5651,9 +6821,11 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>108</v>
-      </c>
-      <c r="B419"/>
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
       <c r="C419" t="n">
         <v>2011</v>
       </c>
@@ -5663,9 +6835,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>108</v>
-      </c>
-      <c r="B420"/>
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
       <c r="C420" t="n">
         <v>2012</v>
       </c>
@@ -5673,9 +6847,11 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421"/>
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
       <c r="C421" t="n">
         <v>2013</v>
       </c>
@@ -5685,9 +6861,11 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422"/>
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
       <c r="C422" t="n">
         <v>2010</v>
       </c>
@@ -5697,9 +6875,11 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>109</v>
-      </c>
-      <c r="B423"/>
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
       <c r="C423" t="n">
         <v>2011</v>
       </c>
@@ -5709,9 +6889,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>109</v>
-      </c>
-      <c r="B424"/>
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
       <c r="C424" t="n">
         <v>2012</v>
       </c>
@@ -5719,9 +6901,11 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>109</v>
-      </c>
-      <c r="B425"/>
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
       <c r="C425" t="n">
         <v>2013</v>
       </c>
@@ -5731,9 +6915,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>110</v>
-      </c>
-      <c r="B426"/>
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
       <c r="C426" t="n">
         <v>2010</v>
       </c>
@@ -5743,9 +6929,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>110</v>
-      </c>
-      <c r="B427"/>
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
       <c r="C427" t="n">
         <v>2011</v>
       </c>
@@ -5755,9 +6943,11 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>110</v>
-      </c>
-      <c r="B428"/>
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
       <c r="C428" t="n">
         <v>2012</v>
       </c>
@@ -5765,9 +6955,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B429"/>
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
       <c r="C429" t="n">
         <v>2013</v>
       </c>
@@ -5777,9 +6969,11 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>111</v>
-      </c>
-      <c r="B430"/>
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
       <c r="C430" t="n">
         <v>2010</v>
       </c>
@@ -5789,9 +6983,11 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>111</v>
-      </c>
-      <c r="B431"/>
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
       <c r="C431" t="n">
         <v>2011</v>
       </c>
@@ -5801,9 +6997,11 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>111</v>
-      </c>
-      <c r="B432"/>
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
       <c r="C432" t="n">
         <v>2012</v>
       </c>
@@ -5811,9 +7009,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>111</v>
-      </c>
-      <c r="B433"/>
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
       <c r="C433" t="n">
         <v>2013</v>
       </c>
@@ -5823,9 +7023,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>112</v>
-      </c>
-      <c r="B434"/>
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
       <c r="C434" t="n">
         <v>2010</v>
       </c>
@@ -5835,9 +7037,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>112</v>
-      </c>
-      <c r="B435"/>
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
       <c r="C435" t="n">
         <v>2011</v>
       </c>
@@ -5847,9 +7051,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>112</v>
-      </c>
-      <c r="B436"/>
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
       <c r="C436" t="n">
         <v>2012</v>
       </c>
@@ -5857,9 +7063,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>112</v>
-      </c>
-      <c r="B437"/>
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
       <c r="C437" t="n">
         <v>2013</v>
       </c>
@@ -5869,9 +7077,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>113</v>
-      </c>
-      <c r="B438"/>
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
       <c r="C438" t="n">
         <v>2010</v>
       </c>
@@ -5881,9 +7091,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>113</v>
-      </c>
-      <c r="B439"/>
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
       <c r="C439" t="n">
         <v>2011</v>
       </c>
@@ -5893,9 +7105,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>113</v>
-      </c>
-      <c r="B440"/>
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
       <c r="C440" t="n">
         <v>2012</v>
       </c>
@@ -5903,9 +7117,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441"/>
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
       <c r="C441" t="n">
         <v>2013</v>
       </c>
@@ -5915,9 +7131,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442"/>
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
       <c r="C442" t="n">
         <v>2010</v>
       </c>
@@ -5927,9 +7145,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>114</v>
-      </c>
-      <c r="B443"/>
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
       <c r="C443" t="n">
         <v>2011</v>
       </c>
@@ -5939,9 +7159,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>114</v>
-      </c>
-      <c r="B444"/>
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
       <c r="C444" t="n">
         <v>2012</v>
       </c>
@@ -5949,9 +7171,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B445"/>
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
       <c r="C445" t="n">
         <v>2013</v>
       </c>
@@ -5961,9 +7185,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>115</v>
-      </c>
-      <c r="B446"/>
+        <v>226</v>
+      </c>
+      <c r="B446" t="s">
+        <v>227</v>
+      </c>
       <c r="C446" t="n">
         <v>2010</v>
       </c>
@@ -5973,9 +7199,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>115</v>
-      </c>
-      <c r="B447"/>
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
       <c r="C447" t="n">
         <v>2011</v>
       </c>
@@ -5985,9 +7213,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>115</v>
-      </c>
-      <c r="B448"/>
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
       <c r="C448" t="n">
         <v>2012</v>
       </c>
@@ -5995,9 +7225,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>115</v>
-      </c>
-      <c r="B449"/>
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
       <c r="C449" t="n">
         <v>2013</v>
       </c>
@@ -6024,16 +7256,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -6053,7 +7285,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>75</v>
@@ -6068,7 +7300,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>45</v>
@@ -6083,7 +7315,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>58</v>
@@ -6098,7 +7330,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>56</v>
@@ -6113,7 +7345,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>49</v>
@@ -6128,7 +7360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>50</v>
@@ -6143,7 +7375,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>61</v>
@@ -6158,7 +7390,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>57</v>
@@ -6173,7 +7405,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>48</v>
@@ -6188,7 +7420,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>52</v>
@@ -6203,7 +7435,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>51</v>
@@ -6218,7 +7450,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>68</v>
@@ -6233,7 +7465,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>63</v>
@@ -6248,7 +7480,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>52</v>
@@ -6263,7 +7495,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>51</v>
@@ -6278,7 +7510,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>55</v>
@@ -6293,7 +7525,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>56</v>
@@ -6308,7 +7540,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>49</v>
@@ -6323,7 +7555,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>61</v>
@@ -6338,7 +7570,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>49</v>
@@ -6353,7 +7585,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>56</v>
@@ -6368,7 +7600,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>45</v>
@@ -6383,7 +7615,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>56</v>
@@ -6398,7 +7630,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>49</v>
@@ -6413,7 +7645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>64</v>
@@ -6428,7 +7660,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>43</v>
@@ -6443,7 +7675,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>57</v>
@@ -6458,7 +7690,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>47</v>
@@ -6473,7 +7705,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>42</v>
@@ -6488,7 +7720,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>61</v>
@@ -6503,7 +7735,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>59</v>
@@ -6518,7 +7750,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>56</v>
@@ -6533,7 +7765,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>50</v>
@@ -6548,7 +7780,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>53</v>
@@ -6563,7 +7795,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>48</v>
@@ -6578,7 +7810,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>74</v>
@@ -6593,7 +7825,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>48</v>
@@ -6608,7 +7840,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>44</v>
@@ -6623,7 +7855,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>57</v>
@@ -6638,7 +7870,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>53</v>
@@ -6653,7 +7885,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>44</v>
@@ -6668,7 +7900,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>49</v>
@@ -6683,7 +7915,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>41</v>
@@ -6698,7 +7930,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>48</v>
@@ -6713,7 +7945,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>43</v>
@@ -6728,7 +7960,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>42</v>
@@ -6743,7 +7975,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>43</v>
@@ -6758,7 +7990,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>44</v>
@@ -6773,7 +8005,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>41</v>
@@ -6788,7 +8020,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
@@ -6803,7 +8035,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>42</v>
@@ -6818,7 +8050,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>43</v>
@@ -6833,7 +8065,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>49</v>
@@ -6848,7 +8080,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>59</v>
@@ -6863,7 +8095,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>53</v>
@@ -6878,7 +8110,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>49</v>
@@ -6893,7 +8125,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>50</v>
@@ -6908,7 +8140,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>57</v>
@@ -6923,7 +8155,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>56</v>
@@ -6938,7 +8170,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>52</v>
@@ -6953,7 +8185,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>63</v>
@@ -6968,7 +8200,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>55</v>
@@ -6983,7 +8215,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>65</v>
@@ -6998,7 +8230,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>64</v>
@@ -7013,7 +8245,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>52</v>
@@ -7028,7 +8260,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>59</v>
@@ -7043,7 +8275,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>53</v>
@@ -7058,7 +8290,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>50</v>
@@ -7073,7 +8305,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>60</v>
@@ -7088,7 +8320,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>44</v>
@@ -7103,7 +8335,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>46</v>
@@ -7118,7 +8350,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>50</v>
@@ -7133,7 +8365,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>55</v>
@@ -7148,7 +8380,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>58</v>
@@ -7163,7 +8395,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>57</v>
@@ -7178,7 +8410,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>53</v>
@@ -7193,7 +8425,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>53</v>
@@ -7208,7 +8440,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>55</v>
@@ -7223,7 +8455,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>59</v>
@@ -7238,7 +8470,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>50</v>
@@ -7253,7 +8485,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>49</v>
@@ -7268,7 +8500,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>65</v>
@@ -7283,7 +8515,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>46</v>
@@ -7298,7 +8530,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>55</v>
@@ -7313,7 +8545,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>52</v>
@@ -7328,7 +8560,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>49</v>
@@ -7343,7 +8575,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>69</v>
@@ -7358,7 +8590,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>54</v>
@@ -7373,7 +8605,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>58</v>
@@ -7388,7 +8620,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>69</v>
@@ -7403,7 +8635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>57</v>
@@ -7418,7 +8650,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>54</v>
@@ -7433,7 +8665,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>58</v>
@@ -7448,7 +8680,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>58</v>
@@ -7463,7 +8695,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>74</v>
@@ -7478,7 +8710,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>65</v>
@@ -7493,7 +8725,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>70</v>
@@ -7508,7 +8740,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>58</v>
@@ -7523,7 +8755,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>68</v>
@@ -7538,7 +8770,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>56</v>
@@ -7553,7 +8785,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>56</v>
@@ -7568,7 +8800,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>63</v>
@@ -7583,7 +8815,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>59</v>
@@ -7598,7 +8830,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>69</v>
@@ -7613,7 +8845,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>69</v>
@@ -7628,7 +8860,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>58</v>
@@ -7643,7 +8875,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>56</v>
@@ -7658,7 +8890,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>69</v>
@@ -7673,7 +8905,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>49</v>
@@ -7688,7 +8920,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>69</v>
@@ -7703,7 +8935,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>69</v>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2010</t>
@@ -1200,7 +1200,7 @@
         <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1240,7 +1240,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1254,7 +1254,7 @@
         <v>2010</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1268,7 +1268,7 @@
         <v>2011</v>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1294,7 +1294,7 @@
         <v>2013</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>2010</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1322,7 +1322,7 @@
         <v>2011</v>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1348,7 +1348,7 @@
         <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1362,7 +1362,7 @@
         <v>2010</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>2011</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -1402,7 +1402,7 @@
         <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -1416,7 +1416,7 @@
         <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1430,7 @@
         <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1456,7 +1456,7 @@
         <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -1470,7 +1470,7 @@
         <v>2010</v>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1484,7 @@
         <v>2011</v>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1510,7 @@
         <v>2013</v>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -1524,7 +1524,7 @@
         <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -1538,7 +1538,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -1578,7 +1578,7 @@
         <v>2010</v>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -1592,7 +1592,7 @@
         <v>2011</v>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1618,7 +1618,7 @@
         <v>2013</v>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1632,7 +1632,7 @@
         <v>2010</v>
       </c>
       <c r="D34" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1646,7 @@
         <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
@@ -1672,7 +1672,7 @@
         <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1686,7 +1686,7 @@
         <v>2010</v>
       </c>
       <c r="D38" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
@@ -1726,7 +1726,7 @@
         <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1740,7 +1740,7 @@
         <v>2010</v>
       </c>
       <c r="D42" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -1754,7 +1754,7 @@
         <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -1780,7 +1780,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
@@ -1794,7 +1794,7 @@
         <v>2010</v>
       </c>
       <c r="D46" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -1808,7 +1808,7 @@
         <v>2011</v>
       </c>
       <c r="D47" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -1834,7 +1834,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -1848,7 +1848,7 @@
         <v>2010</v>
       </c>
       <c r="D50" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>2011</v>
       </c>
       <c r="D51" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1888,7 +1888,7 @@
         <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
@@ -1902,7 +1902,7 @@
         <v>2010</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
@@ -1916,7 +1916,7 @@
         <v>2011</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
@@ -1942,7 +1942,7 @@
         <v>2013</v>
       </c>
       <c r="D57" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1956,7 +1956,7 @@
         <v>2010</v>
       </c>
       <c r="D58" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1970,7 +1970,7 @@
         <v>2011</v>
       </c>
       <c r="D59" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1996,7 +1996,7 @@
         <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -2010,7 +2010,7 @@
         <v>2010</v>
       </c>
       <c r="D62" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
@@ -2024,7 +2024,7 @@
         <v>2011</v>
       </c>
       <c r="D63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
@@ -2050,7 +2050,7 @@
         <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -2064,7 +2064,7 @@
         <v>2010</v>
       </c>
       <c r="D66" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
@@ -2078,7 +2078,7 @@
         <v>2011</v>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
@@ -2104,7 +2104,7 @@
         <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -2118,7 +2118,7 @@
         <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -2132,7 +2132,7 @@
         <v>2011</v>
       </c>
       <c r="D71" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -2158,7 +2158,7 @@
         <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
@@ -2172,7 +2172,7 @@
         <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
@@ -2186,7 +2186,7 @@
         <v>2011</v>
       </c>
       <c r="D75" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
@@ -2212,7 +2212,7 @@
         <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
@@ -2226,7 +2226,7 @@
         <v>2010</v>
       </c>
       <c r="D78" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
@@ -2240,7 +2240,7 @@
         <v>2011</v>
       </c>
       <c r="D79" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
@@ -2266,7 +2266,7 @@
         <v>2013</v>
       </c>
       <c r="D81" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82">
@@ -2294,7 +2294,7 @@
         <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -2320,7 +2320,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
@@ -2334,7 +2334,7 @@
         <v>2010</v>
       </c>
       <c r="D86" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
@@ -2348,7 +2348,7 @@
         <v>2011</v>
       </c>
       <c r="D87" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
@@ -2374,7 +2374,7 @@
         <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90">
@@ -2388,7 +2388,7 @@
         <v>2010</v>
       </c>
       <c r="D90" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
@@ -2402,7 +2402,7 @@
         <v>2011</v>
       </c>
       <c r="D91" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
@@ -2428,7 +2428,7 @@
         <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94">
@@ -2442,7 +2442,7 @@
         <v>2010</v>
       </c>
       <c r="D94" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95">
@@ -2456,7 +2456,7 @@
         <v>2011</v>
       </c>
       <c r="D95" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -2482,7 +2482,7 @@
         <v>2013</v>
       </c>
       <c r="D97" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -2510,7 +2510,7 @@
         <v>2011</v>
       </c>
       <c r="D99" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100">
@@ -2536,7 +2536,7 @@
         <v>2013</v>
       </c>
       <c r="D101" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
@@ -2550,7 +2550,7 @@
         <v>2010</v>
       </c>
       <c r="D102" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103">
@@ -2564,7 +2564,7 @@
         <v>2011</v>
       </c>
       <c r="D103" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104">
@@ -2590,7 +2590,7 @@
         <v>2013</v>
       </c>
       <c r="D105" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
@@ -2604,7 +2604,7 @@
         <v>2010</v>
       </c>
       <c r="D106" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -2618,7 +2618,7 @@
         <v>2011</v>
       </c>
       <c r="D107" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108">
@@ -2644,7 +2644,7 @@
         <v>2013</v>
       </c>
       <c r="D109" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
@@ -2658,7 +2658,7 @@
         <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
@@ -2672,7 +2672,7 @@
         <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112">
@@ -2698,7 +2698,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         <v>2010</v>
       </c>
       <c r="D114" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115">
@@ -2726,7 +2726,7 @@
         <v>2011</v>
       </c>
       <c r="D115" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116">
@@ -2766,7 +2766,7 @@
         <v>2010</v>
       </c>
       <c r="D118" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119">
@@ -2780,7 +2780,7 @@
         <v>2011</v>
       </c>
       <c r="D119" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120">
@@ -2806,7 +2806,7 @@
         <v>2013</v>
       </c>
       <c r="D121" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122">
@@ -2820,7 +2820,7 @@
         <v>2010</v>
       </c>
       <c r="D122" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123">
@@ -2860,7 +2860,7 @@
         <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126">
@@ -2874,7 +2874,7 @@
         <v>2010</v>
       </c>
       <c r="D126" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
@@ -2888,7 +2888,7 @@
         <v>2011</v>
       </c>
       <c r="D127" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -2914,7 +2914,7 @@
         <v>2013</v>
       </c>
       <c r="D129" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130">
@@ -2928,7 +2928,7 @@
         <v>2010</v>
       </c>
       <c r="D130" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131">
@@ -2942,7 +2942,7 @@
         <v>2011</v>
       </c>
       <c r="D131" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
@@ -2968,7 +2968,7 @@
         <v>2013</v>
       </c>
       <c r="D133" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
@@ -2982,7 +2982,7 @@
         <v>2010</v>
       </c>
       <c r="D134" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
@@ -2996,7 +2996,7 @@
         <v>2011</v>
       </c>
       <c r="D135" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136">
@@ -3022,7 +3022,7 @@
         <v>2013</v>
       </c>
       <c r="D137" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
@@ -3036,7 +3036,7 @@
         <v>2010</v>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139">
@@ -3050,7 +3050,7 @@
         <v>2011</v>
       </c>
       <c r="D139" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140">
@@ -3076,7 +3076,7 @@
         <v>2013</v>
       </c>
       <c r="D141" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142">
@@ -3090,7 +3090,7 @@
         <v>2010</v>
       </c>
       <c r="D142" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143">
@@ -3104,7 +3104,7 @@
         <v>2011</v>
       </c>
       <c r="D143" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144">
@@ -3130,7 +3130,7 @@
         <v>2013</v>
       </c>
       <c r="D145" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146">
@@ -3144,7 +3144,7 @@
         <v>2010</v>
       </c>
       <c r="D146" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147">
@@ -3158,7 +3158,7 @@
         <v>2011</v>
       </c>
       <c r="D147" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148">
@@ -3184,7 +3184,7 @@
         <v>2013</v>
       </c>
       <c r="D149" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150">
@@ -3198,7 +3198,7 @@
         <v>2010</v>
       </c>
       <c r="D150" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151">
@@ -3212,7 +3212,7 @@
         <v>2011</v>
       </c>
       <c r="D151" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152">
@@ -3238,7 +3238,7 @@
         <v>2013</v>
       </c>
       <c r="D153" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154">
@@ -3252,7 +3252,7 @@
         <v>2010</v>
       </c>
       <c r="D154" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155">
@@ -3266,7 +3266,7 @@
         <v>2011</v>
       </c>
       <c r="D155" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156">
@@ -3292,7 +3292,7 @@
         <v>2013</v>
       </c>
       <c r="D157" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158">
@@ -3306,7 +3306,7 @@
         <v>2010</v>
       </c>
       <c r="D158" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159">
@@ -3320,7 +3320,7 @@
         <v>2011</v>
       </c>
       <c r="D159" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160">
@@ -3346,7 +3346,7 @@
         <v>2013</v>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162">
@@ -3360,7 +3360,7 @@
         <v>2010</v>
       </c>
       <c r="D162" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163">
@@ -3374,7 +3374,7 @@
         <v>2011</v>
       </c>
       <c r="D163" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164">
@@ -3400,7 +3400,7 @@
         <v>2013</v>
       </c>
       <c r="D165" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166">
@@ -3414,7 +3414,7 @@
         <v>2010</v>
       </c>
       <c r="D166" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167">
@@ -3428,7 +3428,7 @@
         <v>2011</v>
       </c>
       <c r="D167" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168">
@@ -3454,7 +3454,7 @@
         <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170">
@@ -3468,7 +3468,7 @@
         <v>2010</v>
       </c>
       <c r="D170" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
@@ -3482,7 +3482,7 @@
         <v>2011</v>
       </c>
       <c r="D171" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172">
@@ -3508,7 +3508,7 @@
         <v>2013</v>
       </c>
       <c r="D173" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174">
@@ -3522,7 +3522,7 @@
         <v>2010</v>
       </c>
       <c r="D174" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175">
@@ -3562,7 +3562,7 @@
         <v>2013</v>
       </c>
       <c r="D177" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178">
@@ -3576,7 +3576,7 @@
         <v>2010</v>
       </c>
       <c r="D178" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179">
@@ -3590,7 +3590,7 @@
         <v>2011</v>
       </c>
       <c r="D179" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180">
@@ -3616,7 +3616,7 @@
         <v>2013</v>
       </c>
       <c r="D181" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182">
@@ -3630,7 +3630,7 @@
         <v>2010</v>
       </c>
       <c r="D182" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183">
@@ -3644,7 +3644,7 @@
         <v>2011</v>
       </c>
       <c r="D183" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184">
@@ -3670,7 +3670,7 @@
         <v>2013</v>
       </c>
       <c r="D185" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186">
@@ -3698,7 +3698,7 @@
         <v>2011</v>
       </c>
       <c r="D187" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188">
@@ -3724,7 +3724,7 @@
         <v>2013</v>
       </c>
       <c r="D189" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190">
@@ -3738,7 +3738,7 @@
         <v>2010</v>
       </c>
       <c r="D190" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191">
@@ -3752,7 +3752,7 @@
         <v>2011</v>
       </c>
       <c r="D191" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192">
@@ -3778,7 +3778,7 @@
         <v>2013</v>
       </c>
       <c r="D193" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194">
@@ -3792,7 +3792,7 @@
         <v>2010</v>
       </c>
       <c r="D194" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195">
@@ -3806,7 +3806,7 @@
         <v>2011</v>
       </c>
       <c r="D195" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196">
@@ -3832,7 +3832,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198">
@@ -3846,7 +3846,7 @@
         <v>2010</v>
       </c>
       <c r="D198" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199">
@@ -3860,7 +3860,7 @@
         <v>2011</v>
       </c>
       <c r="D199" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200">
@@ -3886,7 +3886,7 @@
         <v>2013</v>
       </c>
       <c r="D201" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202">
@@ -3900,7 +3900,7 @@
         <v>2010</v>
       </c>
       <c r="D202" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203">
@@ -3914,7 +3914,7 @@
         <v>2011</v>
       </c>
       <c r="D203" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204">
@@ -3940,7 +3940,7 @@
         <v>2013</v>
       </c>
       <c r="D205" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="206">
@@ -3954,7 +3954,7 @@
         <v>2010</v>
       </c>
       <c r="D206" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207">
@@ -3968,7 +3968,7 @@
         <v>2011</v>
       </c>
       <c r="D207" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208">
@@ -3994,7 +3994,7 @@
         <v>2013</v>
       </c>
       <c r="D209" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210">
@@ -4008,7 +4008,7 @@
         <v>2010</v>
       </c>
       <c r="D210" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211">
@@ -4022,7 +4022,7 @@
         <v>2011</v>
       </c>
       <c r="D211" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212">
@@ -4048,7 +4048,7 @@
         <v>2013</v>
       </c>
       <c r="D213" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214">
@@ -4062,7 +4062,7 @@
         <v>2010</v>
       </c>
       <c r="D214" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215">
@@ -4076,7 +4076,7 @@
         <v>2011</v>
       </c>
       <c r="D215" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216">
@@ -4102,7 +4102,7 @@
         <v>2013</v>
       </c>
       <c r="D217" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218">
@@ -4116,7 +4116,7 @@
         <v>2010</v>
       </c>
       <c r="D218" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="219">
@@ -4130,7 +4130,7 @@
         <v>2011</v>
       </c>
       <c r="D219" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220">
@@ -4156,7 +4156,7 @@
         <v>2013</v>
       </c>
       <c r="D221" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222">
@@ -4170,7 +4170,7 @@
         <v>2010</v>
       </c>
       <c r="D222" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223">
@@ -4184,7 +4184,7 @@
         <v>2011</v>
       </c>
       <c r="D223" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224">
@@ -4210,7 +4210,7 @@
         <v>2013</v>
       </c>
       <c r="D225" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
@@ -4224,7 +4224,7 @@
         <v>2010</v>
       </c>
       <c r="D226" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
@@ -4238,7 +4238,7 @@
         <v>2011</v>
       </c>
       <c r="D227" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="228">
@@ -4264,7 +4264,7 @@
         <v>2013</v>
       </c>
       <c r="D229" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230">
@@ -4278,7 +4278,7 @@
         <v>2010</v>
       </c>
       <c r="D230" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231">
@@ -4292,7 +4292,7 @@
         <v>2011</v>
       </c>
       <c r="D231" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232">
@@ -4318,7 +4318,7 @@
         <v>2013</v>
       </c>
       <c r="D233" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234">
@@ -4332,7 +4332,7 @@
         <v>2010</v>
       </c>
       <c r="D234" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235">
@@ -4346,7 +4346,7 @@
         <v>2011</v>
       </c>
       <c r="D235" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -4372,7 +4372,7 @@
         <v>2013</v>
       </c>
       <c r="D237" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238">
@@ -4386,7 +4386,7 @@
         <v>2010</v>
       </c>
       <c r="D238" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239">
@@ -4400,7 +4400,7 @@
         <v>2011</v>
       </c>
       <c r="D239" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="240">
@@ -4426,7 +4426,7 @@
         <v>2013</v>
       </c>
       <c r="D241" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="242">
@@ -4440,7 +4440,7 @@
         <v>2010</v>
       </c>
       <c r="D242" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243">
@@ -4480,7 +4480,7 @@
         <v>2013</v>
       </c>
       <c r="D245" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246">
@@ -4494,7 +4494,7 @@
         <v>2010</v>
       </c>
       <c r="D246" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247">
@@ -4508,7 +4508,7 @@
         <v>2011</v>
       </c>
       <c r="D247" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="248">
@@ -4534,7 +4534,7 @@
         <v>2013</v>
       </c>
       <c r="D249" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="250">
@@ -4548,7 +4548,7 @@
         <v>2010</v>
       </c>
       <c r="D250" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251">
@@ -4562,7 +4562,7 @@
         <v>2011</v>
       </c>
       <c r="D251" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252">
@@ -4588,7 +4588,7 @@
         <v>2013</v>
       </c>
       <c r="D253" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254">
@@ -4602,7 +4602,7 @@
         <v>2010</v>
       </c>
       <c r="D254" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255">
@@ -4616,7 +4616,7 @@
         <v>2011</v>
       </c>
       <c r="D255" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="256">
@@ -4642,7 +4642,7 @@
         <v>2013</v>
       </c>
       <c r="D257" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258">
@@ -4656,7 +4656,7 @@
         <v>2010</v>
       </c>
       <c r="D258" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259">
@@ -4670,7 +4670,7 @@
         <v>2011</v>
       </c>
       <c r="D259" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260">
@@ -4696,7 +4696,7 @@
         <v>2013</v>
       </c>
       <c r="D261" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="262">
@@ -4710,7 +4710,7 @@
         <v>2010</v>
       </c>
       <c r="D262" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263">
@@ -4724,7 +4724,7 @@
         <v>2011</v>
       </c>
       <c r="D263" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264">
@@ -4750,7 +4750,7 @@
         <v>2013</v>
       </c>
       <c r="D265" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="266">
@@ -4764,7 +4764,7 @@
         <v>2010</v>
       </c>
       <c r="D266" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267">
@@ -4778,7 +4778,7 @@
         <v>2011</v>
       </c>
       <c r="D267" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268">
@@ -4804,7 +4804,7 @@
         <v>2013</v>
       </c>
       <c r="D269" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270">
@@ -4818,7 +4818,7 @@
         <v>2010</v>
       </c>
       <c r="D270" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271">
@@ -4832,7 +4832,7 @@
         <v>2011</v>
       </c>
       <c r="D271" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272">
@@ -4858,7 +4858,7 @@
         <v>2013</v>
       </c>
       <c r="D273" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274">
@@ -4872,7 +4872,7 @@
         <v>2010</v>
       </c>
       <c r="D274" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="275">
@@ -4886,7 +4886,7 @@
         <v>2011</v>
       </c>
       <c r="D275" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="276">
@@ -4912,7 +4912,7 @@
         <v>2013</v>
       </c>
       <c r="D277" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="278">
@@ -4926,7 +4926,7 @@
         <v>2010</v>
       </c>
       <c r="D278" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279">
@@ -4940,7 +4940,7 @@
         <v>2011</v>
       </c>
       <c r="D279" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="280">
@@ -4966,7 +4966,7 @@
         <v>2013</v>
       </c>
       <c r="D281" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="282">
@@ -4980,7 +4980,7 @@
         <v>2010</v>
       </c>
       <c r="D282" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="283">
@@ -4994,7 +4994,7 @@
         <v>2011</v>
       </c>
       <c r="D283" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="284">
@@ -5020,7 +5020,7 @@
         <v>2013</v>
       </c>
       <c r="D285" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="286">
@@ -5034,7 +5034,7 @@
         <v>2010</v>
       </c>
       <c r="D286" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287">
@@ -5048,7 +5048,7 @@
         <v>2011</v>
       </c>
       <c r="D287" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288">
@@ -5074,7 +5074,7 @@
         <v>2013</v>
       </c>
       <c r="D289" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290">
@@ -5088,7 +5088,7 @@
         <v>2010</v>
       </c>
       <c r="D290" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291">
@@ -5102,7 +5102,7 @@
         <v>2011</v>
       </c>
       <c r="D291" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292">
@@ -5128,7 +5128,7 @@
         <v>2013</v>
       </c>
       <c r="D293" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="294">
@@ -5142,7 +5142,7 @@
         <v>2010</v>
       </c>
       <c r="D294" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295">
@@ -5156,7 +5156,7 @@
         <v>2011</v>
       </c>
       <c r="D295" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="296">
@@ -5182,7 +5182,7 @@
         <v>2013</v>
       </c>
       <c r="D297" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298">
@@ -5210,7 +5210,7 @@
         <v>2011</v>
       </c>
       <c r="D299" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="300">
@@ -5236,7 +5236,7 @@
         <v>2013</v>
       </c>
       <c r="D301" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="302">
@@ -5250,7 +5250,7 @@
         <v>2010</v>
       </c>
       <c r="D302" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="303">
@@ -5264,7 +5264,7 @@
         <v>2011</v>
       </c>
       <c r="D303" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304">
@@ -5290,7 +5290,7 @@
         <v>2013</v>
       </c>
       <c r="D305" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="306">
@@ -5304,7 +5304,7 @@
         <v>2010</v>
       </c>
       <c r="D306" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="307">
@@ -5318,7 +5318,7 @@
         <v>2011</v>
       </c>
       <c r="D307" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308">
@@ -5344,7 +5344,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310">
@@ -5358,7 +5358,7 @@
         <v>2010</v>
       </c>
       <c r="D310" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="311">
@@ -5372,7 +5372,7 @@
         <v>2011</v>
       </c>
       <c r="D311" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312">
@@ -5398,7 +5398,7 @@
         <v>2013</v>
       </c>
       <c r="D313" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314">
@@ -5412,7 +5412,7 @@
         <v>2010</v>
       </c>
       <c r="D314" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315">
@@ -5426,7 +5426,7 @@
         <v>2011</v>
       </c>
       <c r="D315" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316">
@@ -5452,7 +5452,7 @@
         <v>2013</v>
       </c>
       <c r="D317" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="318">
@@ -5466,7 +5466,7 @@
         <v>2010</v>
       </c>
       <c r="D318" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319">
@@ -5480,7 +5480,7 @@
         <v>2011</v>
       </c>
       <c r="D319" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320">
@@ -5506,7 +5506,7 @@
         <v>2013</v>
       </c>
       <c r="D321" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322">
@@ -5520,7 +5520,7 @@
         <v>2010</v>
       </c>
       <c r="D322" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323">
@@ -5534,7 +5534,7 @@
         <v>2011</v>
       </c>
       <c r="D323" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="324">
@@ -5560,7 +5560,7 @@
         <v>2013</v>
       </c>
       <c r="D325" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="326">
@@ -5574,7 +5574,7 @@
         <v>2010</v>
       </c>
       <c r="D326" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="327">
@@ -5588,7 +5588,7 @@
         <v>2011</v>
       </c>
       <c r="D327" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="328">
@@ -5614,7 +5614,7 @@
         <v>2013</v>
       </c>
       <c r="D329" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330">
@@ -5628,7 +5628,7 @@
         <v>2010</v>
       </c>
       <c r="D330" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="331">
@@ -5642,7 +5642,7 @@
         <v>2011</v>
       </c>
       <c r="D331" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332">
@@ -5668,7 +5668,7 @@
         <v>2013</v>
       </c>
       <c r="D333" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="334">
@@ -5682,7 +5682,7 @@
         <v>2010</v>
       </c>
       <c r="D334" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335">
@@ -5696,7 +5696,7 @@
         <v>2011</v>
       </c>
       <c r="D335" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336">
@@ -5722,7 +5722,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338">
@@ -5736,7 +5736,7 @@
         <v>2010</v>
       </c>
       <c r="D338" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="339">
@@ -5750,7 +5750,7 @@
         <v>2011</v>
       </c>
       <c r="D339" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="340">
@@ -5776,7 +5776,7 @@
         <v>2013</v>
       </c>
       <c r="D341" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="342">
@@ -5790,7 +5790,7 @@
         <v>2010</v>
       </c>
       <c r="D342" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>2011</v>
       </c>
       <c r="D343" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="344">
@@ -5830,7 +5830,7 @@
         <v>2013</v>
       </c>
       <c r="D345" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346">
@@ -5844,7 +5844,7 @@
         <v>2010</v>
       </c>
       <c r="D346" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="347">
@@ -5884,7 +5884,7 @@
         <v>2013</v>
       </c>
       <c r="D349" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="350">
@@ -5898,7 +5898,7 @@
         <v>2010</v>
       </c>
       <c r="D350" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="351">
@@ -5912,7 +5912,7 @@
         <v>2011</v>
       </c>
       <c r="D351" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="352">
@@ -5938,7 +5938,7 @@
         <v>2013</v>
       </c>
       <c r="D353" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="354">
@@ -5952,7 +5952,7 @@
         <v>2010</v>
       </c>
       <c r="D354" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="355">
@@ -5966,7 +5966,7 @@
         <v>2011</v>
       </c>
       <c r="D355" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="356">
@@ -5992,7 +5992,7 @@
         <v>2013</v>
       </c>
       <c r="D357" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358">
@@ -6006,7 +6006,7 @@
         <v>2010</v>
       </c>
       <c r="D358" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359">
@@ -6020,7 +6020,7 @@
         <v>2011</v>
       </c>
       <c r="D359" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="360">
@@ -6046,7 +6046,7 @@
         <v>2013</v>
       </c>
       <c r="D361" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="362">
@@ -6060,7 +6060,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="363">
@@ -6074,7 +6074,7 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="364">
@@ -6100,7 +6100,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="366">
@@ -6114,7 +6114,7 @@
         <v>2010</v>
       </c>
       <c r="D366" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="367">
@@ -6128,7 +6128,7 @@
         <v>2011</v>
       </c>
       <c r="D367" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="368">
@@ -6154,7 +6154,7 @@
         <v>2013</v>
       </c>
       <c r="D369" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="370">
@@ -6168,7 +6168,7 @@
         <v>2010</v>
       </c>
       <c r="D370" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371">
@@ -6182,7 +6182,7 @@
         <v>2011</v>
       </c>
       <c r="D371" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="372">
@@ -6222,7 +6222,7 @@
         <v>2010</v>
       </c>
       <c r="D374" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="375">
@@ -6236,7 +6236,7 @@
         <v>2011</v>
       </c>
       <c r="D375" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376">
@@ -6262,7 +6262,7 @@
         <v>2013</v>
       </c>
       <c r="D377" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="378">
@@ -6276,7 +6276,7 @@
         <v>2010</v>
       </c>
       <c r="D378" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="379">
@@ -6290,7 +6290,7 @@
         <v>2011</v>
       </c>
       <c r="D379" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="380">
@@ -6316,7 +6316,7 @@
         <v>2013</v>
       </c>
       <c r="D381" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382">
@@ -6330,7 +6330,7 @@
         <v>2010</v>
       </c>
       <c r="D382" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="383">
@@ -6344,7 +6344,7 @@
         <v>2011</v>
       </c>
       <c r="D383" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="384">
@@ -6370,7 +6370,7 @@
         <v>2013</v>
       </c>
       <c r="D385" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="386">
@@ -6384,7 +6384,7 @@
         <v>2010</v>
       </c>
       <c r="D386" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="387">
@@ -6398,7 +6398,7 @@
         <v>2011</v>
       </c>
       <c r="D387" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388">
@@ -6424,7 +6424,7 @@
         <v>2013</v>
       </c>
       <c r="D389" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="390">
@@ -6438,7 +6438,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="391">
@@ -6452,7 +6452,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="392">
@@ -6478,7 +6478,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="394">
@@ -6492,7 +6492,7 @@
         <v>2010</v>
       </c>
       <c r="D394" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="395">
@@ -6506,7 +6506,7 @@
         <v>2011</v>
       </c>
       <c r="D395" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="396">
@@ -6532,7 +6532,7 @@
         <v>2013</v>
       </c>
       <c r="D397" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="398">
@@ -6546,7 +6546,7 @@
         <v>2010</v>
       </c>
       <c r="D398" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="399">
@@ -6560,7 +6560,7 @@
         <v>2011</v>
       </c>
       <c r="D399" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="400">
@@ -6586,7 +6586,7 @@
         <v>2013</v>
       </c>
       <c r="D401" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="402">
@@ -6600,7 +6600,7 @@
         <v>2010</v>
       </c>
       <c r="D402" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="403">
@@ -6614,7 +6614,7 @@
         <v>2011</v>
       </c>
       <c r="D403" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="404">
@@ -6640,7 +6640,7 @@
         <v>2013</v>
       </c>
       <c r="D405" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="406">
@@ -6654,7 +6654,7 @@
         <v>2010</v>
       </c>
       <c r="D406" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="407">
@@ -6668,7 +6668,7 @@
         <v>2011</v>
       </c>
       <c r="D407" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="408">
@@ -6694,7 +6694,7 @@
         <v>2013</v>
       </c>
       <c r="D409" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="410">
@@ -6708,7 +6708,7 @@
         <v>2010</v>
       </c>
       <c r="D410" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="411">
@@ -6722,7 +6722,7 @@
         <v>2011</v>
       </c>
       <c r="D411" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="412">
@@ -6748,7 +6748,7 @@
         <v>2013</v>
       </c>
       <c r="D413" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="414">
@@ -6762,7 +6762,7 @@
         <v>2010</v>
       </c>
       <c r="D414" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="415">
@@ -6776,7 +6776,7 @@
         <v>2011</v>
       </c>
       <c r="D415" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="416">
@@ -6802,7 +6802,7 @@
         <v>2013</v>
       </c>
       <c r="D417" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="418">
@@ -6830,7 +6830,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="420">
@@ -6856,7 +6856,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="422">
@@ -6870,7 +6870,7 @@
         <v>2010</v>
       </c>
       <c r="D422" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="423">
@@ -6884,7 +6884,7 @@
         <v>2011</v>
       </c>
       <c r="D423" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="424">
@@ -6910,7 +6910,7 @@
         <v>2013</v>
       </c>
       <c r="D425" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="426">
@@ -6924,7 +6924,7 @@
         <v>2010</v>
       </c>
       <c r="D426" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="427">
@@ -6938,7 +6938,7 @@
         <v>2011</v>
       </c>
       <c r="D427" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="428">
@@ -6964,7 +6964,7 @@
         <v>2013</v>
       </c>
       <c r="D429" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="430">
@@ -6978,7 +6978,7 @@
         <v>2010</v>
       </c>
       <c r="D430" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="431">
@@ -6992,7 +6992,7 @@
         <v>2011</v>
       </c>
       <c r="D431" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432">
@@ -7018,7 +7018,7 @@
         <v>2013</v>
       </c>
       <c r="D433" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="434">
@@ -7032,7 +7032,7 @@
         <v>2010</v>
       </c>
       <c r="D434" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="435">
@@ -7046,7 +7046,7 @@
         <v>2011</v>
       </c>
       <c r="D435" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="436">
@@ -7072,7 +7072,7 @@
         <v>2013</v>
       </c>
       <c r="D437" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="438">
@@ -7086,7 +7086,7 @@
         <v>2010</v>
       </c>
       <c r="D438" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="439">
@@ -7100,7 +7100,7 @@
         <v>2011</v>
       </c>
       <c r="D439" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440">
@@ -7126,7 +7126,7 @@
         <v>2013</v>
       </c>
       <c r="D441" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="442">
@@ -7140,7 +7140,7 @@
         <v>2010</v>
       </c>
       <c r="D442" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="443">
@@ -7154,7 +7154,7 @@
         <v>2011</v>
       </c>
       <c r="D443" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="444">
@@ -7180,7 +7180,7 @@
         <v>2013</v>
       </c>
       <c r="D445" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="446">
@@ -7194,7 +7194,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="447">
@@ -7208,7 +7208,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="448">
@@ -7234,7 +7234,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7256,15 +7256,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7272,104 +7275,125 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>56</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
         <v>65</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="n">
-        <v>67</v>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>75</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>45</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="n">
         <v>56</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>58</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
         <v>56</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>56</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="n">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>49</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="n">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>50</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7377,329 +7401,395 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>61</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>57</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="n">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>48</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
         <v>61</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>55</v>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>52</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" t="n">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>51</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>68</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>73</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="n">
+        <v>55</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>63</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" t="n">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>65</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>52</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" t="n">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>51</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" t="n">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>55</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="n">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>56</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>56</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>56</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" t="n">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>49</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" t="n">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>61</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
         <v>56</v>
       </c>
-      <c r="D21"/>
-      <c r="E21" t="n">
-        <v>49</v>
+      <c r="D21" t="n">
+        <v>61</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
         <v>49</v>
       </c>
-      <c r="C22" t="n">
-        <v>56</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" t="n">
-        <v>48</v>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>56</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>61</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" t="n">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>45</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>55</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" t="n">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>66</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>56</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" t="n">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>53</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
-        <v>55</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" t="n">
-        <v>42</v>
+      <c r="D26" t="n">
+        <v>53</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>64</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>66</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27" t="n">
         <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>43</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28" t="n">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D28" t="n">
+        <v>51</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" t="n">
         <v>57</v>
       </c>
-      <c r="C29" t="n">
-        <v>65</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29" t="n">
-        <v>57</v>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>47</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>56</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7707,959 +7797,1151 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>42</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>56</v>
       </c>
-      <c r="D31"/>
-      <c r="E31" t="n">
-        <v>45</v>
+      <c r="D31" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>61</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
+        <v>54</v>
+      </c>
+      <c r="D32" t="n">
         <v>62</v>
       </c>
-      <c r="D32"/>
-      <c r="E32" t="n">
-        <v>52</v>
+      <c r="E32"/>
+      <c r="F32" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>59</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>62</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" t="n">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>67</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>56</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>65</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" t="n">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>50</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>56</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" t="n">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="D35" t="n">
+        <v>65</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>53</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>62</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" t="n">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>48</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
         <v>55</v>
       </c>
-      <c r="D37"/>
-      <c r="E37" t="n">
-        <v>49</v>
+      <c r="D37" t="n">
+        <v>57</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>74</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" t="n">
+        <v>61</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="n">
         <v>59</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>48</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>55</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" t="n">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>44</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
+        <v>74</v>
+      </c>
+      <c r="D40" t="n">
+        <v>59</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="n">
         <v>56</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>57</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" t="n">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>65</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>53</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>59</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" t="n">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>44</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>56</v>
       </c>
-      <c r="D43"/>
-      <c r="E43" t="n">
-        <v>43</v>
+      <c r="D43" t="n">
+        <v>61</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>49</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>55</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" t="n">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>78</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>41</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
+        <v>47</v>
+      </c>
+      <c r="D45" t="n">
         <v>55</v>
       </c>
-      <c r="D45"/>
-      <c r="E45" t="n">
-        <v>38</v>
+      <c r="E45"/>
+      <c r="F45" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>48</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>53</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" t="n">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="D46" t="n">
+        <v>64</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>43</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47" t="n">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="D47" t="n">
+        <v>69</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
         <v>42</v>
       </c>
-      <c r="C48" t="n">
-        <v>52</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" t="n">
-        <v>46</v>
+      <c r="D48" t="n">
+        <v>56</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>43</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" t="n">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>44</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
+        <v>61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>62</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="n">
         <v>52</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>41</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
         <v>51</v>
       </c>
-      <c r="D51"/>
-      <c r="E51" t="n">
-        <v>40</v>
+      <c r="D51" t="n">
+        <v>54</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>50</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>57</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" t="n">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D52" t="n">
+        <v>58</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>42</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
+        <v>45</v>
+      </c>
+      <c r="D53" t="n">
+        <v>56</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="n">
         <v>48</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>43</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
         <v>50</v>
       </c>
-      <c r="D54"/>
-      <c r="E54" t="n">
-        <v>39</v>
+      <c r="D54" t="n">
+        <v>57</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>49</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>57</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55" t="n">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="D55" t="n">
+        <v>71</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>59</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>60</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" t="n">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="D56" t="n">
+        <v>65</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>53</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>54</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57" t="n">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>49</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>60</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58" t="n">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>62</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>50</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>61</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59" t="n">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>57</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60" t="n">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>56</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>64</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61" t="n">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D61" t="n">
+        <v>62</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>52</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
+        <v>59</v>
+      </c>
+      <c r="D62" t="n">
         <v>62</v>
       </c>
-      <c r="D62"/>
-      <c r="E62" t="n">
-        <v>51</v>
+      <c r="E62"/>
+      <c r="F62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>63</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>62</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63" t="n">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45</v>
+      </c>
+      <c r="D64" t="n">
         <v>55</v>
       </c>
-      <c r="C64" t="n">
-        <v>69</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64" t="n">
-        <v>61</v>
+      <c r="E64"/>
+      <c r="F64" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>65</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>64</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65" t="n">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>64</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66" t="n">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>58</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>52</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>57</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67" t="n">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D67" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>59</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
+        <v>55</v>
+      </c>
+      <c r="D68" t="n">
+        <v>69</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="n">
         <v>61</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>53</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>59</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69" t="n">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D69" t="n">
+        <v>50</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>50</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>57</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70" t="n">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D70" t="n">
+        <v>63</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>60</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>65</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" t="n">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D71" t="n">
+        <v>59</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>44</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>54</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72" t="n">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="D72" t="n">
+        <v>67</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>42</v>
+      </c>
+      <c r="D73" t="n">
+        <v>52</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="n">
         <v>46</v>
-      </c>
-      <c r="C73" t="n">
-        <v>57</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>50</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
         <v>57</v>
       </c>
-      <c r="D74"/>
-      <c r="E74" t="n">
-        <v>52</v>
+      <c r="D74" t="n">
+        <v>60</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>55</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>57</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75" t="n">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D75" t="n">
+        <v>69</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
         <v>58</v>
       </c>
-      <c r="C76" t="n">
-        <v>64</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76" t="n">
-        <v>60</v>
+      <c r="D76" t="n">
+        <v>70</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>57</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>60</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77" t="n">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D77" t="n">
+        <v>55</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>53</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>61</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78" t="n">
         <v>56</v>
+      </c>
+      <c r="D78" t="n">
+        <v>65</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>53</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>63</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79" t="n">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="D79" t="n">
+        <v>75</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>55</v>
+      <c r="B80" t="s">
+        <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>56</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80" t="n">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="D80" t="n">
+        <v>70</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>59</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>60</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" t="n">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>50</v>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>58</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82" t="n">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="D82" t="n">
+        <v>64</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>49</v>
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>59</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83" t="n">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="D83" t="n">
+        <v>67</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>65</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>64</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" t="n">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="D84" t="n">
+        <v>62</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>46</v>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>54</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" t="n">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>59</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>55</v>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>58</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86" t="n">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="D86" t="n">
+        <v>69</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>52</v>
+      <c r="B87" t="s">
+        <v>175</v>
       </c>
       <c r="C87" t="n">
         <v>59</v>
       </c>
-      <c r="D87"/>
-      <c r="E87" t="n">
-        <v>53</v>
+      <c r="D87" t="n">
+        <v>61</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>49</v>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="n">
+        <v>51</v>
+      </c>
+      <c r="D88" t="n">
         <v>60</v>
       </c>
-      <c r="D88"/>
-      <c r="E88" t="n">
-        <v>59</v>
+      <c r="E88"/>
+      <c r="F88" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>69</v>
+      <c r="B89" t="s">
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>73</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89" t="n">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="D89" t="n">
+        <v>63</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>54</v>
+      <c r="B90" t="s">
+        <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>62</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90" t="n">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D90" t="n">
+        <v>57</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>58</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91" t="n">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="D91" t="n">
+        <v>54</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>69</v>
+      <c r="B92" t="s">
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>72</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92" t="n">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="D92" t="n">
+        <v>64</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>52</v>
+      </c>
+      <c r="D93" t="n">
         <v>57</v>
       </c>
-      <c r="C93" t="n">
-        <v>61</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" t="n">
-        <v>58</v>
+      <c r="E93"/>
+      <c r="F93" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>54</v>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>58</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" t="n">
+        <v>59</v>
+      </c>
+      <c r="D94" t="n">
+        <v>60</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="n">
         <v>52</v>
       </c>
     </row>
@@ -8667,285 +8949,342 @@
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>58</v>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>62</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" t="n">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D95" t="n">
+        <v>60</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>58</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>70</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" t="n">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D96" t="n">
+        <v>69</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>74</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>75</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97" t="n">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="D97" t="n">
+        <v>54</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>65</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>69</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98" t="n">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="D98" t="n">
+        <v>58</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>70</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>70</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99" t="n">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="D99" t="n">
+        <v>61</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>58</v>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>64</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100" t="n">
+        <v>53</v>
+      </c>
+      <c r="D100" t="n">
         <v>59</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>68</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>69</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" t="n">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>56</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>56</v>
+      <c r="B102" t="s">
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>58</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" t="n">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="D102" t="n">
+        <v>61</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>56</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>61</v>
-      </c>
-      <c r="D103"/>
-      <c r="E103" t="n">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="D103" t="n">
+        <v>70</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>63</v>
+      <c r="B104" t="s">
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>67</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104" t="n">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D104" t="n">
+        <v>70</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>59</v>
+      <c r="B105" t="s">
+        <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v>65</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105" t="n">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D105" t="n">
+        <v>54</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
         <v>69</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
+        <v>72</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="n">
         <v>71</v>
-      </c>
-      <c r="D106"/>
-      <c r="E106" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>69</v>
+      <c r="B107" t="s">
+        <v>215</v>
       </c>
       <c r="C107" t="n">
-        <v>65</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107" t="n">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="D107" t="n">
+        <v>56</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>58</v>
+      <c r="B108" t="s">
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>65</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108" t="n">
+        <v>53</v>
+      </c>
+      <c r="D108" t="n">
         <v>62</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>56</v>
+      <c r="B109" t="s">
+        <v>219</v>
       </c>
       <c r="C109" t="n">
-        <v>63</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" t="n">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="D109" t="n">
+        <v>60</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>69</v>
+      <c r="B110" t="s">
+        <v>221</v>
       </c>
       <c r="C110" t="n">
-        <v>70</v>
-      </c>
-      <c r="D110"/>
-      <c r="E110" t="n">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="D110" t="n">
+        <v>55</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>49</v>
+      <c r="B111" t="s">
+        <v>223</v>
       </c>
       <c r="C111" t="n">
-        <v>60</v>
-      </c>
-      <c r="D111"/>
-      <c r="E111" t="n">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>69</v>
+      <c r="B112" t="s">
+        <v>225</v>
       </c>
       <c r="C112" t="n">
-        <v>70</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" t="n">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>57</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>69</v>
+      <c r="B113" t="s">
+        <v>227</v>
       </c>
       <c r="C113" t="n">
-        <v>72</v>
-      </c>
-      <c r="D113"/>
-      <c r="E113" t="n">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="D113" t="n">
+        <v>59</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
+++ b/user-data/uganda-leaving-exam-perf-rate/uganda-leaving-exam-perf-rate.xlsx
@@ -730,7 +730,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 22</t>
+    <t xml:space="preserve">Source: 23</t>
   </si>
   <si>
     <t xml:space="preserve"/>
